--- a/A02SMVJ_ORCA PRICING REPORT.xlsx
+++ b/A02SMVJ_ORCA PRICING REPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypabl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypabl\Desktop\ARAMIS 2024\A02SMVJ\ATT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6293E37-B749-4BD0-92DB-7A4E46569A07}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC811C0D-CC2F-4E63-BC06-CED7C2359D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3480" yWindow="1035" windowWidth="21600" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -375,18 +375,12 @@
     <t>COST ADJUSTMENT - OTHER</t>
   </si>
   <si>
-    <t>Generated: 05/21/2024, 04:20 PM</t>
-  </si>
-  <si>
     <t>CFAS Project #: A02SMVJ</t>
   </si>
   <si>
     <t>CMC: ALHMG</t>
   </si>
   <si>
-    <t>Pricing Date: 05/21/2024</t>
-  </si>
-  <si>
     <t>10FT-GRD-ROD</t>
   </si>
   <si>
@@ -445,6 +439,12 @@
   </si>
   <si>
     <t>STUDDARD / TELCO</t>
+  </si>
+  <si>
+    <t>Generated: 05/22/2024, 03:59 PM</t>
+  </si>
+  <si>
+    <t>Pricing Date: 05/22/2024</t>
   </si>
 </sst>
 </file>
@@ -554,9 +554,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
     </xf>
@@ -590,10 +587,13 @@
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -602,11 +602,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
@@ -912,7 +912,7 @@
   <dimension ref="A1:G377"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection sqref="A1:G287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -927,7 +927,7 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="71.25">
@@ -947,12 +947,12 @@
     </row>
     <row r="7" spans="1:7" ht="71.25">
       <c r="A7" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="28.5">
       <c r="A8" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="28.5">
@@ -962,7 +962,7 @@
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="A10" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
@@ -988,7 +988,7 @@
     </row>
     <row r="12" spans="1:7" ht="42.75">
       <c r="A12" s="6"/>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C12" s="7">
@@ -1009,7 +1009,7 @@
     </row>
     <row r="13" spans="1:7" ht="42.75">
       <c r="A13" s="6"/>
-      <c r="B13" s="14" t="s">
+      <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C13" s="7">
@@ -1030,7 +1030,7 @@
     </row>
     <row r="14" spans="1:7" ht="42.75">
       <c r="A14" s="6"/>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="13" t="s">
         <v>18</v>
       </c>
       <c r="C14" s="7">
@@ -1051,8 +1051,8 @@
     </row>
     <row r="15" spans="1:7" ht="42.75">
       <c r="A15" s="6"/>
-      <c r="B15" s="14" t="s">
-        <v>120</v>
+      <c r="B15" s="13" t="s">
+        <v>118</v>
       </c>
       <c r="C15" s="7">
         <v>0</v>
@@ -1072,8 +1072,8 @@
     </row>
     <row r="16" spans="1:7" ht="28.5">
       <c r="A16" s="6"/>
-      <c r="B16" s="14" t="s">
-        <v>121</v>
+      <c r="B16" s="13" t="s">
+        <v>119</v>
       </c>
       <c r="C16" s="7">
         <v>0</v>
@@ -1093,8 +1093,8 @@
     </row>
     <row r="17" spans="1:7" ht="28.5">
       <c r="A17" s="6"/>
-      <c r="B17" s="14" t="s">
-        <v>122</v>
+      <c r="B17" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="18" spans="1:7" ht="42.75">
       <c r="A18" s="6"/>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>20</v>
       </c>
       <c r="C18" s="7">
@@ -1135,7 +1135,7 @@
     </row>
     <row r="19" spans="1:7" ht="42.75">
       <c r="A19" s="6"/>
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="13" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="7">
@@ -1156,7 +1156,7 @@
     </row>
     <row r="20" spans="1:7" ht="42.75">
       <c r="A20" s="6"/>
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="13" t="s">
         <v>44</v>
       </c>
       <c r="C20" s="7">
@@ -1177,7 +1177,7 @@
     </row>
     <row r="21" spans="1:7" ht="28.5">
       <c r="A21" s="6"/>
-      <c r="B21" s="14" t="s">
+      <c r="B21" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C21" s="7">
@@ -1192,13 +1192,13 @@
       <c r="F21" s="7">
         <v>107.39</v>
       </c>
-      <c r="G21" s="15">
+      <c r="G21" s="14">
         <v>1073.9000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="6"/>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
@@ -1207,7 +1207,7 @@
     </row>
     <row r="23" spans="1:7" ht="28.5">
       <c r="A23" s="6"/>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
       <c r="C23" s="7" t="s">
         <v>22</v>
       </c>
@@ -1222,7 +1222,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="6"/>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
       <c r="C24" s="7">
         <v>0</v>
       </c>
@@ -1231,13 +1231,13 @@
       </c>
       <c r="E24" s="7"/>
       <c r="F24" s="7"/>
-      <c r="G24" s="15">
+      <c r="G24" s="14">
         <v>3110.86</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="6"/>
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
       <c r="C25" s="7"/>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
@@ -1246,24 +1246,24 @@
     </row>
     <row r="26" spans="1:7" ht="71.25">
       <c r="A26" s="6"/>
-      <c r="B26" s="14" t="s">
+      <c r="B26" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F26" s="7">
         <v>35.5</v>
       </c>
-      <c r="G26" s="15">
+      <c r="G26" s="14">
         <v>1601.83</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="42.75">
       <c r="A27" s="6"/>
-      <c r="B27" s="14" t="s">
+      <c r="B27" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="7"/>
@@ -1280,7 +1280,7 @@
     </row>
     <row r="28" spans="1:7">
       <c r="A28" s="6"/>
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
       <c r="C28" s="7"/>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
@@ -1291,54 +1291,54 @@
       <c r="A29" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C29" s="7"/>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
-      <c r="G29" s="15">
+      <c r="G29" s="14">
         <v>4948.33</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="42.75">
       <c r="A30" s="6"/>
-      <c r="B30" s="14" t="s">
+      <c r="B30" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F30" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="14">
         <v>1119.8</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="42.75">
       <c r="A31" s="6"/>
-      <c r="B31" s="14" t="s">
+      <c r="B31" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F31" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="14">
         <v>5417.16</v>
       </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="6"/>
-      <c r="B32" s="14"/>
+      <c r="B32" s="13"/>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
@@ -1349,33 +1349,33 @@
       <c r="A33" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C33" s="7"/>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
-      <c r="G33" s="15">
+      <c r="G33" s="14">
         <v>6536.96</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.5">
       <c r="A34" s="6"/>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C34" s="7"/>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
-      <c r="G34" s="15">
+      <c r="G34" s="14">
         <v>39336.480000000003</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="57">
       <c r="A35" s="6"/>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>114</v>
       </c>
       <c r="C35" s="7"/>
@@ -1388,7 +1388,7 @@
     </row>
     <row r="36" spans="1:7">
       <c r="A36" s="6"/>
-      <c r="B36" s="14"/>
+      <c r="B36" s="13"/>
       <c r="C36" s="7"/>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
@@ -1399,37 +1399,37 @@
       <c r="A37" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="14" t="s">
+      <c r="B37" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C37" s="7"/>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
-      <c r="G37" s="15">
+      <c r="G37" s="14">
         <v>39356.480000000003</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="28.5">
       <c r="A38" s="6"/>
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F38" s="7">
         <v>122.22</v>
       </c>
-      <c r="G38" s="15">
+      <c r="G38" s="14">
         <v>4047.8</v>
       </c>
     </row>
     <row r="39" spans="1:7">
       <c r="A39" s="6"/>
-      <c r="B39" s="14"/>
+      <c r="B39" s="13"/>
       <c r="C39" s="7"/>
       <c r="D39" s="7"/>
       <c r="E39" s="7"/>
@@ -1440,46 +1440,46 @@
       <c r="A40" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C40" s="7"/>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
-      <c r="G40" s="15">
+      <c r="G40" s="14">
         <v>4047.8</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="85.5">
       <c r="A41" s="6"/>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C41" s="7"/>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
-      <c r="G41" s="15">
+      <c r="G41" s="14">
         <v>54889.56</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="57">
       <c r="A42" s="6"/>
-      <c r="B42" s="14" t="s">
+      <c r="B42" s="13" t="s">
         <v>115</v>
       </c>
       <c r="C42" s="7"/>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
-      <c r="G42" s="15">
+      <c r="G42" s="14">
         <v>13443</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="6"/>
-      <c r="B43" s="14"/>
+      <c r="B43" s="13"/>
       <c r="C43" s="7"/>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
@@ -1490,20 +1490,20 @@
       <c r="A44" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
-      <c r="G44" s="15">
+      <c r="G44" s="14">
         <v>68332.56</v>
       </c>
     </row>
     <row r="45" spans="1:7">
       <c r="A45" s="6"/>
-      <c r="B45" s="14"/>
+      <c r="B45" s="13"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
@@ -1512,7 +1512,7 @@
     </row>
     <row r="46" spans="1:7" ht="28.5">
       <c r="A46" s="6"/>
-      <c r="B46" s="14" t="s">
+      <c r="B46" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C46" s="7"/>
@@ -1525,7 +1525,7 @@
     </row>
     <row r="47" spans="1:7" ht="28.5">
       <c r="A47" s="6"/>
-      <c r="B47" s="14" t="s">
+      <c r="B47" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C47" s="7"/>
@@ -1538,7 +1538,7 @@
     </row>
     <row r="48" spans="1:7" ht="42.75">
       <c r="A48" s="6"/>
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C48" s="7"/>
@@ -1551,7 +1551,7 @@
     </row>
     <row r="49" spans="1:7" ht="85.5">
       <c r="A49" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="71.25">
@@ -1571,12 +1571,12 @@
     </row>
     <row r="53" spans="1:7" ht="71.25">
       <c r="A53" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="28.5">
       <c r="A54" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="28.5">
@@ -1586,7 +1586,7 @@
     </row>
     <row r="56" spans="1:7" ht="57">
       <c r="A56" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="42.75">
@@ -1612,7 +1612,7 @@
     </row>
     <row r="58" spans="1:7" ht="28.5">
       <c r="A58" s="6"/>
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="13" t="s">
         <v>21</v>
       </c>
       <c r="C58" s="7">
@@ -1633,7 +1633,7 @@
     </row>
     <row r="59" spans="1:7" ht="28.5">
       <c r="A59" s="6"/>
-      <c r="B59" s="14" t="s">
+      <c r="B59" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C59" s="7">
@@ -1648,13 +1648,13 @@
       <c r="F59" s="7">
         <v>107.39</v>
       </c>
-      <c r="G59" s="15">
+      <c r="G59" s="14">
         <v>10416.83</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="28.5">
       <c r="A60" s="6"/>
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="13" t="s">
         <v>40</v>
       </c>
       <c r="C60" s="7">
@@ -1675,8 +1675,8 @@
     </row>
     <row r="61" spans="1:7" ht="28.5">
       <c r="A61" s="6"/>
-      <c r="B61" s="14" t="s">
-        <v>122</v>
+      <c r="B61" s="13" t="s">
+        <v>120</v>
       </c>
       <c r="C61" s="7">
         <v>0</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="62" spans="1:7" ht="42.75">
       <c r="A62" s="6"/>
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="13" t="s">
         <v>41</v>
       </c>
       <c r="C62" s="7">
@@ -1711,13 +1711,13 @@
       <c r="F62" s="7">
         <v>0.32</v>
       </c>
-      <c r="G62" s="15">
+      <c r="G62" s="14">
         <v>4001.92</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="42.75">
       <c r="A63" s="6"/>
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="13" t="s">
         <v>43</v>
       </c>
       <c r="C63" s="7">
@@ -1732,14 +1732,14 @@
       <c r="F63" s="7">
         <v>1.8</v>
       </c>
-      <c r="G63" s="15">
+      <c r="G63" s="14">
         <v>11464.2</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="42.75">
       <c r="A64" s="6"/>
-      <c r="B64" s="14" t="s">
-        <v>127</v>
+      <c r="B64" s="13" t="s">
+        <v>125</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
@@ -1753,14 +1753,14 @@
       <c r="F64" s="7">
         <v>0.98</v>
       </c>
-      <c r="G64" s="15">
+      <c r="G64" s="14">
         <v>7739.06</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="28.5">
       <c r="A65" s="6"/>
-      <c r="B65" s="14" t="s">
-        <v>128</v>
+      <c r="B65" s="13" t="s">
+        <v>126</v>
       </c>
       <c r="C65" s="7">
         <v>0</v>
@@ -1780,7 +1780,7 @@
     </row>
     <row r="66" spans="1:7" ht="42.75">
       <c r="A66" s="6"/>
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="13" t="s">
         <v>42</v>
       </c>
       <c r="C66" s="7">
@@ -1795,13 +1795,13 @@
       <c r="F66" s="7">
         <v>0.45</v>
       </c>
-      <c r="G66" s="15">
+      <c r="G66" s="14">
         <v>4249.3500000000004</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="42.75">
       <c r="A67" s="6"/>
-      <c r="B67" s="14" t="s">
+      <c r="B67" s="13" t="s">
         <v>45</v>
       </c>
       <c r="C67" s="7">
@@ -1816,14 +1816,14 @@
       <c r="F67" s="7">
         <v>0.6</v>
       </c>
-      <c r="G67" s="15">
+      <c r="G67" s="14">
         <v>2842.8</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="42.75">
       <c r="A68" s="6"/>
-      <c r="B68" s="14" t="s">
-        <v>129</v>
+      <c r="B68" s="13" t="s">
+        <v>127</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -1837,13 +1837,13 @@
       <c r="F68" s="7">
         <v>2.67</v>
       </c>
-      <c r="G68" s="15">
+      <c r="G68" s="14">
         <v>20860.71</v>
       </c>
     </row>
     <row r="69" spans="1:7">
       <c r="A69" s="6"/>
-      <c r="B69" s="14"/>
+      <c r="B69" s="13"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -1852,7 +1852,7 @@
     </row>
     <row r="70" spans="1:7" ht="28.5">
       <c r="A70" s="6"/>
-      <c r="B70" s="14"/>
+      <c r="B70" s="13"/>
       <c r="C70" s="7" t="s">
         <v>22</v>
       </c>
@@ -1867,7 +1867,7 @@
     </row>
     <row r="71" spans="1:7">
       <c r="A71" s="6"/>
-      <c r="B71" s="14"/>
+      <c r="B71" s="13"/>
       <c r="C71" s="7">
         <v>0</v>
       </c>
@@ -1876,13 +1876,13 @@
       </c>
       <c r="E71" s="7"/>
       <c r="F71" s="7"/>
-      <c r="G71" s="15">
+      <c r="G71" s="14">
         <v>63008.959999999999</v>
       </c>
     </row>
     <row r="72" spans="1:7">
       <c r="A72" s="6"/>
-      <c r="B72" s="14"/>
+      <c r="B72" s="13"/>
       <c r="C72" s="7"/>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
@@ -1891,24 +1891,24 @@
     </row>
     <row r="73" spans="1:7" ht="71.25">
       <c r="A73" s="6"/>
-      <c r="B73" s="14" t="s">
+      <c r="B73" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F73" s="7">
         <v>35.5</v>
       </c>
-      <c r="G73" s="15">
+      <c r="G73" s="14">
         <v>33964.61</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="42.75">
       <c r="A74" s="6"/>
-      <c r="B74" s="14" t="s">
+      <c r="B74" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C74" s="7"/>
@@ -1919,13 +1919,13 @@
       <c r="F74" s="7">
         <v>0.05</v>
       </c>
-      <c r="G74" s="15">
+      <c r="G74" s="14">
         <v>4848.68</v>
       </c>
     </row>
     <row r="75" spans="1:7">
       <c r="A75" s="6"/>
-      <c r="B75" s="14"/>
+      <c r="B75" s="13"/>
       <c r="C75" s="7"/>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
@@ -1936,54 +1936,54 @@
       <c r="A76" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C76" s="7"/>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
-      <c r="G76" s="15">
+      <c r="G76" s="14">
         <v>101822.25</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="42.75">
       <c r="A77" s="6"/>
-      <c r="B77" s="14" t="s">
+      <c r="B77" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F77" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G77" s="15">
+      <c r="G77" s="14">
         <v>89506.07</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="42.75">
       <c r="A78" s="6"/>
-      <c r="B78" s="14" t="s">
+      <c r="B78" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F78" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G78" s="15">
+      <c r="G78" s="14">
         <v>49101.06</v>
       </c>
     </row>
     <row r="79" spans="1:7">
       <c r="A79" s="6"/>
-      <c r="B79" s="14"/>
+      <c r="B79" s="13"/>
       <c r="C79" s="7"/>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
@@ -1994,20 +1994,20 @@
       <c r="A80" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C80" s="7"/>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
-      <c r="G80" s="15">
+      <c r="G80" s="14">
         <v>138607.13</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="28.5">
       <c r="A81" s="6"/>
-      <c r="B81" s="14" t="s">
+      <c r="B81" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C81" s="7"/>
@@ -2020,7 +2020,7 @@
     </row>
     <row r="82" spans="1:7">
       <c r="A82" s="6"/>
-      <c r="B82" s="14"/>
+      <c r="B82" s="13"/>
       <c r="C82" s="7"/>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
@@ -2031,7 +2031,7 @@
       <c r="A83" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B83" s="14" t="s">
+      <c r="B83" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C83" s="7"/>
@@ -2044,24 +2044,24 @@
     </row>
     <row r="84" spans="1:7" ht="28.5">
       <c r="A84" s="6"/>
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F84" s="7">
         <v>122.22</v>
       </c>
-      <c r="G84" s="15">
+      <c r="G84" s="14">
         <v>15912.1</v>
       </c>
     </row>
     <row r="85" spans="1:7">
       <c r="A85" s="6"/>
-      <c r="B85" s="14"/>
+      <c r="B85" s="13"/>
       <c r="C85" s="7"/>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
@@ -2072,46 +2072,46 @@
       <c r="A86" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B86" s="14" t="s">
+      <c r="B86" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C86" s="7"/>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="15">
+      <c r="G86" s="14">
         <v>15912.1</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="85.5">
       <c r="A87" s="6"/>
-      <c r="B87" s="14" t="s">
+      <c r="B87" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C87" s="7"/>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
-      <c r="G87" s="15">
+      <c r="G87" s="14">
         <v>256341.48</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="57">
       <c r="A88" s="6"/>
-      <c r="B88" s="14" t="s">
+      <c r="B88" s="13" t="s">
         <v>115</v>
       </c>
       <c r="C88" s="7"/>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="7"/>
-      <c r="G88" s="15">
-        <v>64882</v>
+      <c r="G88" s="14">
+        <v>79421</v>
       </c>
     </row>
     <row r="89" spans="1:7">
       <c r="A89" s="6"/>
-      <c r="B89" s="14"/>
+      <c r="B89" s="13"/>
       <c r="C89" s="7"/>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
@@ -2122,20 +2122,20 @@
       <c r="A90" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B90" s="14" t="s">
+      <c r="B90" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C90" s="7"/>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
-      <c r="G90" s="15">
-        <v>321223.48</v>
+      <c r="G90" s="14">
+        <v>335762.48</v>
       </c>
     </row>
     <row r="91" spans="1:7">
       <c r="A91" s="6"/>
-      <c r="B91" s="14"/>
+      <c r="B91" s="13"/>
       <c r="C91" s="7"/>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="92" spans="1:7" ht="28.5">
       <c r="A92" s="6"/>
-      <c r="B92" s="14" t="s">
+      <c r="B92" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C92" s="7"/>
@@ -2157,7 +2157,7 @@
     </row>
     <row r="93" spans="1:7" ht="28.5">
       <c r="A93" s="6"/>
-      <c r="B93" s="14" t="s">
+      <c r="B93" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C93" s="7"/>
@@ -2170,7 +2170,7 @@
     </row>
     <row r="94" spans="1:7" ht="42.75">
       <c r="A94" s="6"/>
-      <c r="B94" s="14" t="s">
+      <c r="B94" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C94" s="7"/>
@@ -2183,7 +2183,7 @@
     </row>
     <row r="95" spans="1:7" ht="85.5">
       <c r="A95" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="71.25">
@@ -2203,12 +2203,12 @@
     </row>
     <row r="99" spans="1:7" ht="71.25">
       <c r="A99" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="28.5">
       <c r="A100" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="28.5">
@@ -2218,7 +2218,7 @@
     </row>
     <row r="102" spans="1:7" ht="57">
       <c r="A102" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="42.75">
@@ -2244,8 +2244,8 @@
     </row>
     <row r="104" spans="1:7" ht="28.5">
       <c r="A104" s="6"/>
-      <c r="B104" s="14" t="s">
-        <v>134</v>
+      <c r="B104" s="13" t="s">
+        <v>132</v>
       </c>
       <c r="C104" s="7">
         <v>0</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="105" spans="1:7" ht="28.5">
       <c r="A105" s="6"/>
-      <c r="B105" s="14" t="s">
+      <c r="B105" s="13" t="s">
         <v>47</v>
       </c>
       <c r="C105" s="7">
@@ -2286,7 +2286,7 @@
     </row>
     <row r="106" spans="1:7">
       <c r="A106" s="6"/>
-      <c r="B106" s="14"/>
+      <c r="B106" s="13"/>
       <c r="C106" s="7"/>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="107" spans="1:7" ht="28.5">
       <c r="A107" s="6"/>
-      <c r="B107" s="14"/>
+      <c r="B107" s="13"/>
       <c r="C107" s="7" t="s">
         <v>22</v>
       </c>
@@ -2310,7 +2310,7 @@
     </row>
     <row r="108" spans="1:7">
       <c r="A108" s="6"/>
-      <c r="B108" s="14"/>
+      <c r="B108" s="13"/>
       <c r="C108" s="7">
         <v>0</v>
       </c>
@@ -2325,7 +2325,7 @@
     </row>
     <row r="109" spans="1:7">
       <c r="A109" s="6"/>
-      <c r="B109" s="14"/>
+      <c r="B109" s="13"/>
       <c r="C109" s="7"/>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
@@ -2334,13 +2334,13 @@
     </row>
     <row r="110" spans="1:7" ht="71.25">
       <c r="A110" s="6"/>
-      <c r="B110" s="14" t="s">
+      <c r="B110" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F110" s="7">
         <v>35.5</v>
@@ -2351,7 +2351,7 @@
     </row>
     <row r="111" spans="1:7" ht="42.75">
       <c r="A111" s="6"/>
-      <c r="B111" s="14" t="s">
+      <c r="B111" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C111" s="7"/>
@@ -2368,7 +2368,7 @@
     </row>
     <row r="112" spans="1:7">
       <c r="A112" s="6"/>
-      <c r="B112" s="14"/>
+      <c r="B112" s="13"/>
       <c r="C112" s="7"/>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
@@ -2379,7 +2379,7 @@
       <c r="A113" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B113" s="14" t="s">
+      <c r="B113" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C113" s="7"/>
@@ -2392,13 +2392,13 @@
     </row>
     <row r="114" spans="1:7" ht="42.75">
       <c r="A114" s="6"/>
-      <c r="B114" s="14" t="s">
+      <c r="B114" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F114" s="7">
         <v>144.88999999999999</v>
@@ -2409,7 +2409,7 @@
     </row>
     <row r="115" spans="1:7" ht="42.75">
       <c r="A115" s="6"/>
-      <c r="B115" s="14" t="s">
+      <c r="B115" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="7"/>
@@ -2426,7 +2426,7 @@
     </row>
     <row r="116" spans="1:7">
       <c r="A116" s="6"/>
-      <c r="B116" s="14"/>
+      <c r="B116" s="13"/>
       <c r="C116" s="7"/>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
@@ -2437,7 +2437,7 @@
       <c r="A117" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B117" s="14" t="s">
+      <c r="B117" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C117" s="7"/>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="118" spans="1:7" ht="28.5">
       <c r="A118" s="6"/>
-      <c r="B118" s="14" t="s">
+      <c r="B118" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C118" s="7"/>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="119" spans="1:7">
       <c r="A119" s="6"/>
-      <c r="B119" s="14"/>
+      <c r="B119" s="13"/>
       <c r="C119" s="7"/>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
@@ -2474,7 +2474,7 @@
       <c r="A120" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B120" s="14" t="s">
+      <c r="B120" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C120" s="7"/>
@@ -2487,13 +2487,13 @@
     </row>
     <row r="121" spans="1:7" ht="28.5">
       <c r="A121" s="6"/>
-      <c r="B121" s="14" t="s">
+      <c r="B121" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F121" s="7">
         <v>122.22</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="122" spans="1:7">
       <c r="A122" s="6"/>
-      <c r="B122" s="14"/>
+      <c r="B122" s="13"/>
       <c r="C122" s="7"/>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
@@ -2515,7 +2515,7 @@
       <c r="A123" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B123" s="14" t="s">
+      <c r="B123" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C123" s="7"/>
@@ -2528,7 +2528,7 @@
     </row>
     <row r="124" spans="1:7" ht="85.5">
       <c r="A124" s="6"/>
-      <c r="B124" s="14" t="s">
+      <c r="B124" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C124" s="7"/>
@@ -2541,7 +2541,7 @@
     </row>
     <row r="125" spans="1:7">
       <c r="A125" s="6"/>
-      <c r="B125" s="14"/>
+      <c r="B125" s="13"/>
       <c r="C125" s="7"/>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
@@ -2552,7 +2552,7 @@
       <c r="A126" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B126" s="14" t="s">
+      <c r="B126" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C126" s="7"/>
@@ -2565,7 +2565,7 @@
     </row>
     <row r="127" spans="1:7">
       <c r="A127" s="6"/>
-      <c r="B127" s="14"/>
+      <c r="B127" s="13"/>
       <c r="C127" s="7"/>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
@@ -2574,7 +2574,7 @@
     </row>
     <row r="128" spans="1:7" ht="28.5">
       <c r="A128" s="6"/>
-      <c r="B128" s="14" t="s">
+      <c r="B128" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C128" s="7"/>
@@ -2587,7 +2587,7 @@
     </row>
     <row r="129" spans="1:7" ht="28.5">
       <c r="A129" s="6"/>
-      <c r="B129" s="14" t="s">
+      <c r="B129" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C129" s="7"/>
@@ -2600,7 +2600,7 @@
     </row>
     <row r="130" spans="1:7" ht="42.75">
       <c r="A130" s="6"/>
-      <c r="B130" s="14" t="s">
+      <c r="B130" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C130" s="7"/>
@@ -2613,7 +2613,7 @@
     </row>
     <row r="131" spans="1:7" ht="85.5">
       <c r="A131" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="71.25">
@@ -2633,12 +2633,12 @@
     </row>
     <row r="135" spans="1:7" ht="71.25">
       <c r="A135" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="28.5">
       <c r="A136" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="28.5">
@@ -2648,7 +2648,7 @@
     </row>
     <row r="138" spans="1:7" ht="57">
       <c r="A138" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="42.75">
@@ -2674,7 +2674,7 @@
     </row>
     <row r="140" spans="1:7" ht="42.75">
       <c r="A140" s="6"/>
-      <c r="B140" s="14" t="s">
+      <c r="B140" s="13" t="s">
         <v>15</v>
       </c>
       <c r="C140" s="7">
@@ -2695,7 +2695,7 @@
     </row>
     <row r="141" spans="1:7" ht="28.5">
       <c r="A141" s="6"/>
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="13" t="s">
         <v>51</v>
       </c>
       <c r="C141" s="7">
@@ -2716,7 +2716,7 @@
     </row>
     <row r="142" spans="1:7">
       <c r="A142" s="6"/>
-      <c r="B142" s="14"/>
+      <c r="B142" s="13"/>
       <c r="C142" s="7"/>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
@@ -2725,7 +2725,7 @@
     </row>
     <row r="143" spans="1:7" ht="28.5">
       <c r="A143" s="6"/>
-      <c r="B143" s="14"/>
+      <c r="B143" s="13"/>
       <c r="C143" s="7" t="s">
         <v>22</v>
       </c>
@@ -2740,7 +2740,7 @@
     </row>
     <row r="144" spans="1:7">
       <c r="A144" s="6"/>
-      <c r="B144" s="14"/>
+      <c r="B144" s="13"/>
       <c r="C144" s="7">
         <v>0</v>
       </c>
@@ -2755,7 +2755,7 @@
     </row>
     <row r="145" spans="1:7">
       <c r="A145" s="6"/>
-      <c r="B145" s="14"/>
+      <c r="B145" s="13"/>
       <c r="C145" s="7"/>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
@@ -2764,7 +2764,7 @@
     </row>
     <row r="146" spans="1:7">
       <c r="A146" s="6"/>
-      <c r="B146" s="14"/>
+      <c r="B146" s="13"/>
       <c r="C146" s="7"/>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
@@ -2775,7 +2775,7 @@
       <c r="A147" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B147" s="14" t="s">
+      <c r="B147" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C147" s="7"/>
@@ -2788,7 +2788,7 @@
     </row>
     <row r="148" spans="1:7" ht="42.75">
       <c r="A148" s="6"/>
-      <c r="B148" s="14" t="s">
+      <c r="B148" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C148" s="7"/>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="149" spans="1:7" ht="42.75">
       <c r="A149" s="6"/>
-      <c r="B149" s="14" t="s">
+      <c r="B149" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C149" s="7"/>
@@ -2822,7 +2822,7 @@
     </row>
     <row r="150" spans="1:7">
       <c r="A150" s="6"/>
-      <c r="B150" s="14"/>
+      <c r="B150" s="13"/>
       <c r="C150" s="7"/>
       <c r="D150" s="7"/>
       <c r="E150" s="7"/>
@@ -2833,7 +2833,7 @@
       <c r="A151" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B151" s="14" t="s">
+      <c r="B151" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C151" s="7"/>
@@ -2846,20 +2846,20 @@
     </row>
     <row r="152" spans="1:7" ht="28.5">
       <c r="A152" s="6"/>
-      <c r="B152" s="14" t="s">
+      <c r="B152" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C152" s="7"/>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="7"/>
-      <c r="G152" s="15">
+      <c r="G152" s="14">
         <v>2812.96</v>
       </c>
     </row>
     <row r="153" spans="1:7">
       <c r="A153" s="6"/>
-      <c r="B153" s="14"/>
+      <c r="B153" s="13"/>
       <c r="C153" s="7"/>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
@@ -2870,26 +2870,26 @@
       <c r="A154" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B154" s="14" t="s">
+      <c r="B154" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C154" s="7"/>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="7"/>
-      <c r="G154" s="15">
+      <c r="G154" s="14">
         <v>2812.96</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="28.5">
       <c r="A155" s="6"/>
-      <c r="B155" s="14" t="s">
+      <c r="B155" s="13" t="s">
         <v>32</v>
       </c>
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F155" s="7">
         <v>122.22</v>
@@ -2900,7 +2900,7 @@
     </row>
     <row r="156" spans="1:7">
       <c r="A156" s="6"/>
-      <c r="B156" s="14"/>
+      <c r="B156" s="13"/>
       <c r="C156" s="7"/>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
@@ -2911,7 +2911,7 @@
       <c r="A157" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="13" t="s">
         <v>33</v>
       </c>
       <c r="C157" s="7"/>
@@ -2924,20 +2924,20 @@
     </row>
     <row r="158" spans="1:7" ht="85.5">
       <c r="A158" s="6"/>
-      <c r="B158" s="14" t="s">
+      <c r="B158" s="13" t="s">
         <v>34</v>
       </c>
       <c r="C158" s="7"/>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
-      <c r="G158" s="15">
+      <c r="G158" s="14">
         <v>2970.49</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="57">
       <c r="A159" s="6"/>
-      <c r="B159" s="14" t="s">
+      <c r="B159" s="13" t="s">
         <v>115</v>
       </c>
       <c r="C159" s="7"/>
@@ -2950,7 +2950,7 @@
     </row>
     <row r="160" spans="1:7">
       <c r="A160" s="6"/>
-      <c r="B160" s="14"/>
+      <c r="B160" s="13"/>
       <c r="C160" s="7"/>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
@@ -2961,20 +2961,20 @@
       <c r="A161" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B161" s="14" t="s">
+      <c r="B161" s="13" t="s">
         <v>35</v>
       </c>
       <c r="C161" s="7"/>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
-      <c r="G161" s="15">
+      <c r="G161" s="14">
         <v>3243.49</v>
       </c>
     </row>
     <row r="162" spans="1:7">
       <c r="A162" s="6"/>
-      <c r="B162" s="14"/>
+      <c r="B162" s="13"/>
       <c r="C162" s="7"/>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
@@ -2983,7 +2983,7 @@
     </row>
     <row r="163" spans="1:7" ht="28.5">
       <c r="A163" s="6"/>
-      <c r="B163" s="14" t="s">
+      <c r="B163" s="13" t="s">
         <v>36</v>
       </c>
       <c r="C163" s="7"/>
@@ -2996,7 +2996,7 @@
     </row>
     <row r="164" spans="1:7" ht="28.5">
       <c r="A164" s="6"/>
-      <c r="B164" s="14" t="s">
+      <c r="B164" s="13" t="s">
         <v>37</v>
       </c>
       <c r="C164" s="7"/>
@@ -3009,7 +3009,7 @@
     </row>
     <row r="165" spans="1:7" ht="42.75">
       <c r="A165" s="6"/>
-      <c r="B165" s="14" t="s">
+      <c r="B165" s="13" t="s">
         <v>38</v>
       </c>
       <c r="C165" s="7"/>
@@ -3022,7 +3022,7 @@
     </row>
     <row r="166" spans="1:7" ht="85.5">
       <c r="A166" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="71.25">
@@ -3042,17 +3042,17 @@
     </row>
     <row r="170" spans="1:7" ht="71.25">
       <c r="A170" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="28.5">
       <c r="A171" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="57">
       <c r="A172" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="57">
@@ -3073,11 +3073,11 @@
       </c>
     </row>
     <row r="174" spans="1:7">
-      <c r="A174" s="10" t="s">
+      <c r="A174" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B174" s="17">
-        <v>393503.46</v>
+      <c r="B174" s="16">
+        <v>408042.46</v>
       </c>
       <c r="C174" s="7">
         <v>0</v>
@@ -3090,7 +3090,7 @@
       </c>
     </row>
     <row r="175" spans="1:7" ht="28.5">
-      <c r="A175" s="10"/>
+      <c r="A175" s="22"/>
       <c r="B175" s="7" t="s">
         <v>22</v>
       </c>
@@ -3105,9 +3105,9 @@
       </c>
     </row>
     <row r="176" spans="1:7">
-      <c r="A176" s="10"/>
-      <c r="B176" s="17">
-        <v>393503.46</v>
+      <c r="A176" s="22"/>
+      <c r="B176" s="16">
+        <v>408042.46</v>
       </c>
       <c r="C176" s="7">
         <v>0</v>
@@ -3120,14 +3120,14 @@
       </c>
     </row>
     <row r="177" spans="1:5">
-      <c r="A177" s="10"/>
+      <c r="A177" s="22"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
       <c r="D177" s="7"/>
       <c r="E177" s="6"/>
     </row>
     <row r="178" spans="1:5" ht="42.75">
-      <c r="A178" s="10" t="s">
+      <c r="A178" s="22" t="s">
         <v>60</v>
       </c>
       <c r="B178" s="7"/>
@@ -3138,7 +3138,7 @@
       <c r="E178" s="6"/>
     </row>
     <row r="179" spans="1:5" ht="42.75">
-      <c r="A179" s="10" t="s">
+      <c r="A179" s="22" t="s">
         <v>61</v>
       </c>
       <c r="B179" s="7"/>
@@ -3149,58 +3149,58 @@
       <c r="E179" s="6"/>
     </row>
     <row r="180" spans="1:5">
-      <c r="A180" s="10"/>
+      <c r="A180" s="22"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
       <c r="D180" s="7"/>
       <c r="E180" s="6"/>
     </row>
     <row r="181" spans="1:5" ht="71.25">
-      <c r="A181" s="10" t="s">
+      <c r="A181" s="22" t="s">
         <v>31</v>
       </c>
       <c r="B181" s="7"/>
-      <c r="C181" s="18">
+      <c r="C181" s="17">
         <v>42486.720000000001</v>
       </c>
       <c r="D181" s="7"/>
       <c r="E181" s="6"/>
     </row>
     <row r="182" spans="1:5" ht="71.25">
-      <c r="A182" s="10" t="s">
+      <c r="A182" s="22" t="s">
         <v>33</v>
       </c>
       <c r="B182" s="7"/>
-      <c r="C182" s="18">
+      <c r="C182" s="17">
         <v>20195.78</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="6"/>
     </row>
     <row r="183" spans="1:5" ht="85.5">
-      <c r="A183" s="10" t="s">
+      <c r="A183" s="22" t="s">
         <v>62</v>
       </c>
       <c r="B183" s="7"/>
-      <c r="C183" s="18">
-        <v>393503.46</v>
+      <c r="C183" s="17">
+        <v>408042.46</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="6"/>
     </row>
     <row r="184" spans="1:5" ht="57">
-      <c r="A184" s="10" t="s">
+      <c r="A184" s="22" t="s">
         <v>63</v>
       </c>
       <c r="B184" s="7"/>
-      <c r="C184" s="18">
-        <v>393503.46</v>
+      <c r="C184" s="17">
+        <v>408042.46</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="6"/>
     </row>
     <row r="185" spans="1:5" ht="42.75">
-      <c r="A185" s="10"/>
+      <c r="A185" s="22"/>
       <c r="B185" s="7" t="s">
         <v>64</v>
       </c>
@@ -3211,7 +3211,7 @@
       <c r="E185" s="6"/>
     </row>
     <row r="186" spans="1:5" ht="42.75">
-      <c r="A186" s="10"/>
+      <c r="A186" s="22"/>
       <c r="B186" s="7" t="s">
         <v>65</v>
       </c>
@@ -3222,7 +3222,7 @@
       <c r="E186" s="6"/>
     </row>
     <row r="187" spans="1:5" ht="57">
-      <c r="A187" s="10"/>
+      <c r="A187" s="22"/>
       <c r="B187" s="7" t="s">
         <v>66</v>
       </c>
@@ -3233,7 +3233,7 @@
       <c r="E187" s="6"/>
     </row>
     <row r="188" spans="1:5" ht="71.25">
-      <c r="A188" s="10"/>
+      <c r="A188" s="22"/>
       <c r="B188" s="7" t="s">
         <v>67</v>
       </c>
@@ -3245,7 +3245,7 @@
     </row>
     <row r="189" spans="1:5" ht="85.5">
       <c r="A189" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="71.25">
@@ -3265,17 +3265,17 @@
     </row>
     <row r="193" spans="1:5" ht="71.25">
       <c r="A193" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="28.5">
       <c r="A194" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="57">
       <c r="A195" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="42.75">
@@ -3296,7 +3296,7 @@
       </c>
     </row>
     <row r="197" spans="1:5" ht="57">
-      <c r="A197" s="10" t="s">
+      <c r="A197" s="22" t="s">
         <v>20</v>
       </c>
       <c r="B197" s="7">
@@ -3313,7 +3313,7 @@
       </c>
     </row>
     <row r="198" spans="1:5" ht="28.5">
-      <c r="A198" s="10"/>
+      <c r="A198" s="22"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7" t="s">
         <v>22</v>
@@ -3326,7 +3326,7 @@
       </c>
     </row>
     <row r="199" spans="1:5" ht="28.5">
-      <c r="A199" s="10" t="s">
+      <c r="A199" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B199" s="7"/>
@@ -3356,7 +3356,7 @@
       <c r="E200" s="31"/>
     </row>
     <row r="201" spans="1:5" ht="42.75">
-      <c r="A201" s="10" t="s">
+      <c r="A201" s="22" t="s">
         <v>21</v>
       </c>
       <c r="B201" s="7">
@@ -3368,11 +3368,11 @@
       <c r="D201" s="7">
         <v>0.152</v>
       </c>
-      <c r="E201" s="10"/>
+      <c r="E201" s="22"/>
     </row>
     <row r="202" spans="1:5" ht="42.75">
-      <c r="A202" s="10" t="s">
-        <v>122</v>
+      <c r="A202" s="22" t="s">
+        <v>120</v>
       </c>
       <c r="B202" s="7">
         <v>432</v>
@@ -3383,10 +3383,10 @@
       <c r="D202" s="7">
         <v>234.57599999999999</v>
       </c>
-      <c r="E202" s="10"/>
+      <c r="E202" s="22"/>
     </row>
     <row r="203" spans="1:5" ht="42.75">
-      <c r="A203" s="10" t="s">
+      <c r="A203" s="22" t="s">
         <v>41</v>
       </c>
       <c r="B203" s="7">
@@ -3398,10 +3398,10 @@
       <c r="D203" s="7">
         <v>296.78399999999999</v>
       </c>
-      <c r="E203" s="10"/>
+      <c r="E203" s="22"/>
     </row>
     <row r="204" spans="1:5" ht="57">
-      <c r="A204" s="10" t="s">
+      <c r="A204" s="22" t="s">
         <v>43</v>
       </c>
       <c r="B204" s="7">
@@ -3413,11 +3413,11 @@
       <c r="D204" s="7">
         <v>1358.424</v>
       </c>
-      <c r="E204" s="10"/>
+      <c r="E204" s="22"/>
     </row>
     <row r="205" spans="1:5" ht="42.75">
-      <c r="A205" s="10" t="s">
-        <v>127</v>
+      <c r="A205" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="B205" s="7">
         <v>144</v>
@@ -3428,11 +3428,11 @@
       <c r="D205" s="7">
         <v>1125.6479999999999</v>
       </c>
-      <c r="E205" s="10"/>
+      <c r="E205" s="22"/>
     </row>
     <row r="206" spans="1:5" ht="42.75">
-      <c r="A206" s="10" t="s">
-        <v>128</v>
+      <c r="A206" s="22" t="s">
+        <v>126</v>
       </c>
       <c r="B206" s="7">
         <v>72</v>
@@ -3443,10 +3443,10 @@
       <c r="D206" s="7">
         <v>118.224</v>
       </c>
-      <c r="E206" s="10"/>
+      <c r="E206" s="22"/>
     </row>
     <row r="207" spans="1:5" ht="42.75">
-      <c r="A207" s="10" t="s">
+      <c r="A207" s="22" t="s">
         <v>42</v>
       </c>
       <c r="B207" s="7">
@@ -3458,10 +3458,10 @@
       <c r="D207" s="7">
         <v>449.42399999999998</v>
       </c>
-      <c r="E207" s="10"/>
+      <c r="E207" s="22"/>
     </row>
     <row r="208" spans="1:5" ht="42.75">
-      <c r="A208" s="10" t="s">
+      <c r="A208" s="22" t="s">
         <v>45</v>
       </c>
       <c r="B208" s="7">
@@ -3473,11 +3473,11 @@
       <c r="D208" s="7">
         <v>338.25599999999997</v>
       </c>
-      <c r="E208" s="10"/>
+      <c r="E208" s="22"/>
     </row>
     <row r="209" spans="1:5" ht="57">
-      <c r="A209" s="10" t="s">
-        <v>129</v>
+      <c r="A209" s="22" t="s">
+        <v>127</v>
       </c>
       <c r="B209" s="7">
         <v>432</v>
@@ -3488,11 +3488,11 @@
       <c r="D209" s="7">
         <v>3349.2959999999998</v>
       </c>
-      <c r="E209" s="10"/>
+      <c r="E209" s="22"/>
     </row>
     <row r="210" spans="1:5" ht="42.75">
-      <c r="A210" s="10" t="s">
-        <v>121</v>
+      <c r="A210" s="22" t="s">
+        <v>119</v>
       </c>
       <c r="B210" s="7">
         <v>144</v>
@@ -3503,10 +3503,10 @@
       <c r="D210" s="7">
         <v>14.4</v>
       </c>
-      <c r="E210" s="10"/>
+      <c r="E210" s="22"/>
     </row>
     <row r="211" spans="1:5" ht="57">
-      <c r="A211" s="10" t="s">
+      <c r="A211" s="22" t="s">
         <v>19</v>
       </c>
       <c r="B211" s="7">
@@ -3518,10 +3518,10 @@
       <c r="D211" s="7">
         <v>47.735999999999997</v>
       </c>
-      <c r="E211" s="10"/>
+      <c r="E211" s="22"/>
     </row>
     <row r="212" spans="1:5" ht="57">
-      <c r="A212" s="10" t="s">
+      <c r="A212" s="22" t="s">
         <v>44</v>
       </c>
       <c r="B212" s="7">
@@ -3533,10 +3533,10 @@
       <c r="D212" s="7">
         <v>83.28</v>
       </c>
-      <c r="E212" s="10"/>
+      <c r="E212" s="22"/>
     </row>
     <row r="213" spans="1:5" ht="28.5">
-      <c r="A213" s="10"/>
+      <c r="A213" s="22"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7" t="s">
         <v>22</v>
@@ -3544,10 +3544,10 @@
       <c r="D213" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E213" s="10"/>
+      <c r="E213" s="22"/>
     </row>
     <row r="214" spans="1:5" ht="28.5">
-      <c r="A214" s="10" t="s">
+      <c r="A214" s="22" t="s">
         <v>74</v>
       </c>
       <c r="B214" s="7"/>
@@ -3557,11 +3557,11 @@
       <c r="D214" s="7">
         <v>7416.2</v>
       </c>
-      <c r="E214" s="10"/>
+      <c r="E214" s="22"/>
     </row>
     <row r="215" spans="1:5" ht="85.5">
       <c r="A215" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="216" spans="1:5" ht="71.25">
@@ -3581,17 +3581,17 @@
     </row>
     <row r="219" spans="1:5" ht="71.25">
       <c r="A219" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="220" spans="1:5" ht="28.5">
       <c r="A220" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="57">
       <c r="A221" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="156.75">
@@ -3606,7 +3606,7 @@
     </row>
     <row r="224" spans="1:5" ht="85.5">
       <c r="A224" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="225" spans="1:3" ht="71.25">
@@ -3626,12 +3626,12 @@
     </row>
     <row r="228" spans="1:3" ht="71.25">
       <c r="A228" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="229" spans="1:3" ht="28.5">
       <c r="A229" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="230" spans="1:3" ht="28.5">
@@ -3641,7 +3641,7 @@
     </row>
     <row r="231" spans="1:3" ht="57">
       <c r="A231" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42.75" customHeight="1">
@@ -3656,270 +3656,270 @@
         <v>85</v>
       </c>
       <c r="B233" s="25"/>
-      <c r="C233" s="27">
+      <c r="C233" s="26">
         <v>1.76</v>
       </c>
     </row>
     <row r="234" spans="1:3">
-      <c r="A234" s="10" t="s">
+      <c r="A234" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B234" s="22">
+      <c r="B234" s="23">
         <v>1.76</v>
       </c>
-      <c r="C234" s="27"/>
+      <c r="C234" s="26"/>
     </row>
     <row r="235" spans="1:3">
-      <c r="A235" s="10" t="s">
+      <c r="A235" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B235" s="22">
-        <v>0</v>
-      </c>
-      <c r="C235" s="27"/>
+      <c r="B235" s="23">
+        <v>0</v>
+      </c>
+      <c r="C235" s="26"/>
     </row>
     <row r="236" spans="1:3">
-      <c r="A236" s="10" t="s">
+      <c r="A236" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B236" s="22">
-        <v>0</v>
-      </c>
-      <c r="C236" s="27"/>
+      <c r="B236" s="23">
+        <v>0</v>
+      </c>
+      <c r="C236" s="26"/>
     </row>
     <row r="237" spans="1:3" ht="28.5">
-      <c r="A237" s="10" t="s">
+      <c r="A237" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B237" s="22">
-        <v>0</v>
-      </c>
-      <c r="C237" s="27"/>
+      <c r="B237" s="23">
+        <v>0</v>
+      </c>
+      <c r="C237" s="26"/>
     </row>
     <row r="238" spans="1:3" ht="28.5" customHeight="1">
       <c r="A238" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B238" s="25"/>
-      <c r="C238" s="27">
+      <c r="C238" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:3">
-      <c r="A239" s="10" t="s">
+      <c r="A239" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B239" s="22">
-        <v>0</v>
-      </c>
-      <c r="C239" s="27"/>
+      <c r="B239" s="23">
+        <v>0</v>
+      </c>
+      <c r="C239" s="26"/>
     </row>
     <row r="240" spans="1:3">
-      <c r="A240" s="10" t="s">
+      <c r="A240" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B240" s="22">
-        <v>0</v>
-      </c>
-      <c r="C240" s="27"/>
+      <c r="B240" s="23">
+        <v>0</v>
+      </c>
+      <c r="C240" s="26"/>
     </row>
     <row r="241" spans="1:3">
-      <c r="A241" s="10" t="s">
+      <c r="A241" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B241" s="22">
-        <v>0</v>
-      </c>
-      <c r="C241" s="27"/>
+      <c r="B241" s="23">
+        <v>0</v>
+      </c>
+      <c r="C241" s="26"/>
     </row>
     <row r="242" spans="1:3" ht="28.5">
-      <c r="A242" s="10" t="s">
+      <c r="A242" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B242" s="22">
-        <v>0</v>
-      </c>
-      <c r="C242" s="27"/>
+      <c r="B242" s="23">
+        <v>0</v>
+      </c>
+      <c r="C242" s="26"/>
     </row>
     <row r="243" spans="1:3" ht="28.5" customHeight="1">
       <c r="A243" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B243" s="25"/>
-      <c r="C243" s="27">
+      <c r="C243" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:3">
-      <c r="A244" s="10" t="s">
+      <c r="A244" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B244" s="22">
-        <v>0</v>
-      </c>
-      <c r="C244" s="27"/>
+      <c r="B244" s="23">
+        <v>0</v>
+      </c>
+      <c r="C244" s="26"/>
     </row>
     <row r="245" spans="1:3">
-      <c r="A245" s="10" t="s">
+      <c r="A245" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B245" s="22">
-        <v>0</v>
-      </c>
-      <c r="C245" s="27"/>
+      <c r="B245" s="23">
+        <v>0</v>
+      </c>
+      <c r="C245" s="26"/>
     </row>
     <row r="246" spans="1:3">
-      <c r="A246" s="10" t="s">
+      <c r="A246" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B246" s="22">
-        <v>0</v>
-      </c>
-      <c r="C246" s="27"/>
+      <c r="B246" s="23">
+        <v>0</v>
+      </c>
+      <c r="C246" s="26"/>
     </row>
     <row r="247" spans="1:3" ht="28.5">
-      <c r="A247" s="10" t="s">
+      <c r="A247" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B247" s="22">
-        <v>0</v>
-      </c>
-      <c r="C247" s="27"/>
+      <c r="B247" s="23">
+        <v>0</v>
+      </c>
+      <c r="C247" s="26"/>
     </row>
     <row r="248" spans="1:3" ht="28.5" customHeight="1">
       <c r="A248" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B248" s="25"/>
-      <c r="C248" s="27">
+      <c r="C248" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:3">
-      <c r="A249" s="10" t="s">
+      <c r="A249" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B249" s="22">
-        <v>0</v>
-      </c>
-      <c r="C249" s="27"/>
+      <c r="B249" s="23">
+        <v>0</v>
+      </c>
+      <c r="C249" s="26"/>
     </row>
     <row r="250" spans="1:3">
-      <c r="A250" s="10" t="s">
+      <c r="A250" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B250" s="22">
-        <v>0</v>
-      </c>
-      <c r="C250" s="27"/>
+      <c r="B250" s="23">
+        <v>0</v>
+      </c>
+      <c r="C250" s="26"/>
     </row>
     <row r="251" spans="1:3">
-      <c r="A251" s="10" t="s">
+      <c r="A251" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B251" s="22">
-        <v>0</v>
-      </c>
-      <c r="C251" s="27"/>
+      <c r="B251" s="23">
+        <v>0</v>
+      </c>
+      <c r="C251" s="26"/>
     </row>
     <row r="252" spans="1:3" ht="28.5">
-      <c r="A252" s="10" t="s">
+      <c r="A252" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B252" s="22">
-        <v>0</v>
-      </c>
-      <c r="C252" s="27"/>
+      <c r="B252" s="23">
+        <v>0</v>
+      </c>
+      <c r="C252" s="26"/>
     </row>
     <row r="253" spans="1:3" ht="42.75" customHeight="1">
       <c r="A253" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B253" s="25"/>
-      <c r="C253" s="27">
+      <c r="C253" s="26">
         <v>20</v>
       </c>
     </row>
     <row r="254" spans="1:3">
-      <c r="A254" s="10" t="s">
+      <c r="A254" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B254" s="22">
+      <c r="B254" s="23">
         <v>20</v>
       </c>
-      <c r="C254" s="27"/>
+      <c r="C254" s="26"/>
     </row>
     <row r="255" spans="1:3">
-      <c r="A255" s="10" t="s">
+      <c r="A255" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B255" s="22">
-        <v>0</v>
-      </c>
-      <c r="C255" s="27"/>
+      <c r="B255" s="23">
+        <v>0</v>
+      </c>
+      <c r="C255" s="26"/>
     </row>
     <row r="256" spans="1:3">
-      <c r="A256" s="10" t="s">
+      <c r="A256" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B256" s="22">
-        <v>0</v>
-      </c>
-      <c r="C256" s="27"/>
+      <c r="B256" s="23">
+        <v>0</v>
+      </c>
+      <c r="C256" s="26"/>
     </row>
     <row r="257" spans="1:3" ht="28.5">
-      <c r="A257" s="10" t="s">
+      <c r="A257" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B257" s="22">
-        <v>0</v>
-      </c>
-      <c r="C257" s="27"/>
+      <c r="B257" s="23">
+        <v>0</v>
+      </c>
+      <c r="C257" s="26"/>
     </row>
     <row r="258" spans="1:3" ht="28.5" customHeight="1">
       <c r="A258" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B258" s="25"/>
-      <c r="C258" s="27">
+      <c r="C258" s="26">
         <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:3">
-      <c r="A259" s="10" t="s">
+      <c r="A259" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B259" s="22">
-        <v>0</v>
-      </c>
-      <c r="C259" s="27"/>
+      <c r="B259" s="23">
+        <v>0</v>
+      </c>
+      <c r="C259" s="26"/>
     </row>
     <row r="260" spans="1:3">
-      <c r="A260" s="10" t="s">
+      <c r="A260" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B260" s="22">
-        <v>0</v>
-      </c>
-      <c r="C260" s="27"/>
+      <c r="B260" s="23">
+        <v>0</v>
+      </c>
+      <c r="C260" s="26"/>
     </row>
     <row r="261" spans="1:3">
-      <c r="A261" s="10" t="s">
+      <c r="A261" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B261" s="22">
-        <v>0</v>
-      </c>
-      <c r="C261" s="27"/>
+      <c r="B261" s="23">
+        <v>0</v>
+      </c>
+      <c r="C261" s="26"/>
     </row>
     <row r="262" spans="1:3" ht="28.5">
-      <c r="A262" s="10" t="s">
+      <c r="A262" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B262" s="22">
-        <v>0</v>
-      </c>
-      <c r="C262" s="27"/>
+      <c r="B262" s="23">
+        <v>0</v>
+      </c>
+      <c r="C262" s="26"/>
     </row>
     <row r="263" spans="1:3" ht="42.75" customHeight="1">
       <c r="A263" s="25" t="s">
@@ -3927,41 +3927,41 @@
       </c>
       <c r="B263" s="25"/>
       <c r="C263" s="24">
-        <v>78598</v>
+        <v>93137</v>
       </c>
     </row>
     <row r="264" spans="1:3">
-      <c r="A264" s="10" t="s">
+      <c r="A264" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="B264" s="23">
+      <c r="B264" s="21">
         <v>13443</v>
       </c>
       <c r="C264" s="24"/>
     </row>
     <row r="265" spans="1:3">
-      <c r="A265" s="10" t="s">
+      <c r="A265" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="B265" s="23">
-        <v>64882</v>
+      <c r="B265" s="21">
+        <v>79421</v>
       </c>
       <c r="C265" s="24"/>
     </row>
     <row r="266" spans="1:3">
-      <c r="A266" s="10" t="s">
+      <c r="A266" s="22" t="s">
         <v>88</v>
       </c>
-      <c r="B266" s="22">
+      <c r="B266" s="23">
         <v>0</v>
       </c>
       <c r="C266" s="24"/>
     </row>
     <row r="267" spans="1:3" ht="28.5">
-      <c r="A267" s="10" t="s">
+      <c r="A267" s="22" t="s">
         <v>90</v>
       </c>
-      <c r="B267" s="22">
+      <c r="B267" s="23">
         <v>273</v>
       </c>
       <c r="C267" s="24"/>
@@ -3969,17 +3969,17 @@
     <row r="268" spans="1:3" ht="28.5">
       <c r="A268" s="25"/>
       <c r="B268" s="25"/>
-      <c r="C268" s="22" t="s">
+      <c r="C268" s="23" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="269" spans="1:3">
+    <row r="269" spans="1:3" ht="15" customHeight="1">
       <c r="A269" s="25" t="s">
         <v>96</v>
       </c>
       <c r="B269" s="25"/>
       <c r="C269" s="24">
-        <v>78619.759999999995</v>
+        <v>93158.76</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3994,20 +3994,20 @@
       <c r="B271" s="33"/>
     </row>
     <row r="272" spans="1:3" ht="85.5">
-      <c r="A272" s="10" t="s">
+      <c r="A272" s="22" t="s">
         <v>98</v>
       </c>
       <c r="B272" s="24">
-        <v>78619.759999999995</v>
+        <v>93158.76</v>
       </c>
     </row>
     <row r="273" spans="1:7">
-      <c r="A273" s="10"/>
+      <c r="A273" s="22"/>
       <c r="B273" s="24"/>
     </row>
     <row r="274" spans="1:7" ht="85.5">
       <c r="A274" s="3" t="s">
-        <v>116</v>
+        <v>138</v>
       </c>
     </row>
     <row r="275" spans="1:7" ht="71.25">
@@ -4027,17 +4027,17 @@
     </row>
     <row r="278" spans="1:7" ht="71.25">
       <c r="A278" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="279" spans="1:7" ht="28.5">
       <c r="A279" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="280" spans="1:7" ht="57">
       <c r="A280" s="5" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="71.25">
@@ -4064,17 +4064,17 @@
       </c>
     </row>
     <row r="282" spans="1:7" ht="42.75">
-      <c r="A282" s="10" t="s">
+      <c r="A282" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B282" s="14" t="s">
+      <c r="B282" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C282" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D282" s="14" t="s">
-        <v>139</v>
+      <c r="C282" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D282" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E282" s="7">
         <v>697.94</v>
@@ -4082,22 +4082,22 @@
       <c r="F282" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G282" s="15">
+      <c r="G282" s="14">
         <v>101124.53</v>
       </c>
     </row>
     <row r="283" spans="1:7" ht="42.75">
-      <c r="A283" s="10" t="s">
+      <c r="A283" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B283" s="14" t="s">
+      <c r="B283" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C283" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D283" s="14" t="s">
-        <v>139</v>
+      <c r="C283" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D283" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E283" s="7">
         <v>133.69999999999999</v>
@@ -4105,22 +4105,22 @@
       <c r="F283" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G283" s="15">
+      <c r="G283" s="14">
         <v>19371.79</v>
       </c>
     </row>
     <row r="284" spans="1:7" ht="42.75">
-      <c r="A284" s="10" t="s">
+      <c r="A284" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B284" s="14" t="s">
+      <c r="B284" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C284" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D284" s="14" t="s">
-        <v>139</v>
+      <c r="C284" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D284" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E284" s="7">
         <v>171.54</v>
@@ -4128,22 +4128,22 @@
       <c r="F284" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G284" s="15">
+      <c r="G284" s="14">
         <v>24854.43</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="42.75">
-      <c r="A285" s="10" t="s">
+      <c r="A285" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="B285" s="14" t="s">
+      <c r="B285" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C285" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="D285" s="14" t="s">
-        <v>139</v>
+      <c r="C285" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D285" s="13" t="s">
+        <v>137</v>
       </c>
       <c r="E285" s="7">
         <v>0</v>
@@ -4156,10 +4156,10 @@
       </c>
     </row>
     <row r="286" spans="1:7" ht="28.5">
-      <c r="A286" s="10"/>
-      <c r="B286" s="14"/>
-      <c r="C286" s="14"/>
-      <c r="D286" s="14"/>
+      <c r="A286" s="22"/>
+      <c r="B286" s="13"/>
+      <c r="C286" s="13"/>
+      <c r="D286" s="13"/>
       <c r="E286" s="7" t="s">
         <v>22</v>
       </c>
@@ -4169,15 +4169,15 @@
       </c>
     </row>
     <row r="287" spans="1:7">
-      <c r="A287" s="10"/>
-      <c r="B287" s="14"/>
-      <c r="C287" s="14"/>
-      <c r="D287" s="14"/>
+      <c r="A287" s="22"/>
+      <c r="B287" s="13"/>
+      <c r="C287" s="13"/>
+      <c r="D287" s="13"/>
       <c r="E287" s="7">
         <v>1003.18</v>
       </c>
       <c r="F287" s="7"/>
-      <c r="G287" s="15">
+      <c r="G287" s="14">
         <v>145388.84</v>
       </c>
     </row>
@@ -4256,7 +4256,7 @@
       </c>
     </row>
     <row r="298" spans="1:5" ht="156.75">
-      <c r="A298" s="19" t="s">
+      <c r="A298" s="18" t="s">
         <v>79</v>
       </c>
     </row>
@@ -4306,18 +4306,18 @@
       </c>
     </row>
     <row r="308" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A308" s="26" t="s">
+      <c r="A308" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B308" s="26"/>
-      <c r="C308" s="20"/>
+      <c r="B308" s="27"/>
+      <c r="C308" s="19"/>
     </row>
     <row r="309" spans="1:3" ht="28.5" customHeight="1">
       <c r="A309" s="25" t="s">
         <v>85</v>
       </c>
       <c r="B309" s="25"/>
-      <c r="C309" s="27">
+      <c r="C309" s="26">
         <v>36.39</v>
       </c>
     </row>
@@ -4328,7 +4328,7 @@
       <c r="B310" s="8">
         <v>36.39</v>
       </c>
-      <c r="C310" s="27"/>
+      <c r="C310" s="26"/>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="9" t="s">
@@ -4337,7 +4337,7 @@
       <c r="B311" s="8">
         <v>0</v>
       </c>
-      <c r="C311" s="27"/>
+      <c r="C311" s="26"/>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="9" t="s">
@@ -4346,7 +4346,7 @@
       <c r="B312" s="8">
         <v>0</v>
       </c>
-      <c r="C312" s="27"/>
+      <c r="C312" s="26"/>
     </row>
     <row r="313" spans="1:3" ht="28.5" customHeight="1">
       <c r="A313" s="9" t="s">
@@ -4355,7 +4355,7 @@
       <c r="B313" s="8">
         <v>0</v>
       </c>
-      <c r="C313" s="27"/>
+      <c r="C313" s="26"/>
     </row>
     <row r="314" spans="1:3" ht="28.5">
       <c r="A314" s="9" t="s">
@@ -4364,7 +4364,7 @@
       <c r="B314" s="8">
         <v>0</v>
       </c>
-      <c r="C314" s="27"/>
+      <c r="C314" s="26"/>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="9" t="s">
@@ -4373,14 +4373,14 @@
       <c r="B315" s="8">
         <v>0</v>
       </c>
-      <c r="C315" s="27"/>
+      <c r="C315" s="26"/>
     </row>
     <row r="316" spans="1:3" ht="28.5" customHeight="1">
       <c r="A316" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B316" s="25"/>
-      <c r="C316" s="27">
+      <c r="C316" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4391,7 +4391,7 @@
       <c r="B317" s="8">
         <v>0</v>
       </c>
-      <c r="C317" s="27"/>
+      <c r="C317" s="26"/>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="9" t="s">
@@ -4400,7 +4400,7 @@
       <c r="B318" s="8">
         <v>0</v>
       </c>
-      <c r="C318" s="27"/>
+      <c r="C318" s="26"/>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="9" t="s">
@@ -4409,7 +4409,7 @@
       <c r="B319" s="8">
         <v>0</v>
       </c>
-      <c r="C319" s="27"/>
+      <c r="C319" s="26"/>
     </row>
     <row r="320" spans="1:3" ht="28.5" customHeight="1">
       <c r="A320" s="9" t="s">
@@ -4418,7 +4418,7 @@
       <c r="B320" s="8">
         <v>0</v>
       </c>
-      <c r="C320" s="27"/>
+      <c r="C320" s="26"/>
     </row>
     <row r="321" spans="1:3" ht="28.5">
       <c r="A321" s="9" t="s">
@@ -4427,7 +4427,7 @@
       <c r="B321" s="8">
         <v>0</v>
       </c>
-      <c r="C321" s="27"/>
+      <c r="C321" s="26"/>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="9" t="s">
@@ -4436,14 +4436,14 @@
       <c r="B322" s="8">
         <v>0</v>
       </c>
-      <c r="C322" s="27"/>
+      <c r="C322" s="26"/>
     </row>
     <row r="323" spans="1:3" ht="28.5" customHeight="1">
       <c r="A323" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B323" s="25"/>
-      <c r="C323" s="27">
+      <c r="C323" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4454,7 +4454,7 @@
       <c r="B324" s="8">
         <v>0</v>
       </c>
-      <c r="C324" s="27"/>
+      <c r="C324" s="26"/>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="9" t="s">
@@ -4463,7 +4463,7 @@
       <c r="B325" s="8">
         <v>0</v>
       </c>
-      <c r="C325" s="27"/>
+      <c r="C325" s="26"/>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="9" t="s">
@@ -4472,7 +4472,7 @@
       <c r="B326" s="8">
         <v>0</v>
       </c>
-      <c r="C326" s="27"/>
+      <c r="C326" s="26"/>
     </row>
     <row r="327" spans="1:3" ht="28.5" customHeight="1">
       <c r="A327" s="9" t="s">
@@ -4481,7 +4481,7 @@
       <c r="B327" s="8">
         <v>0</v>
       </c>
-      <c r="C327" s="27"/>
+      <c r="C327" s="26"/>
     </row>
     <row r="328" spans="1:3" ht="28.5">
       <c r="A328" s="9" t="s">
@@ -4490,7 +4490,7 @@
       <c r="B328" s="8">
         <v>0</v>
       </c>
-      <c r="C328" s="27"/>
+      <c r="C328" s="26"/>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="9" t="s">
@@ -4499,14 +4499,14 @@
       <c r="B329" s="8">
         <v>0</v>
       </c>
-      <c r="C329" s="27"/>
+      <c r="C329" s="26"/>
     </row>
     <row r="330" spans="1:3" ht="28.5" customHeight="1">
       <c r="A330" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B330" s="25"/>
-      <c r="C330" s="27">
+      <c r="C330" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4517,7 +4517,7 @@
       <c r="B331" s="8">
         <v>0</v>
       </c>
-      <c r="C331" s="27"/>
+      <c r="C331" s="26"/>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="9" t="s">
@@ -4526,7 +4526,7 @@
       <c r="B332" s="8">
         <v>0</v>
       </c>
-      <c r="C332" s="27"/>
+      <c r="C332" s="26"/>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="9" t="s">
@@ -4535,7 +4535,7 @@
       <c r="B333" s="8">
         <v>0</v>
       </c>
-      <c r="C333" s="27"/>
+      <c r="C333" s="26"/>
     </row>
     <row r="334" spans="1:3" ht="28.5" customHeight="1">
       <c r="A334" s="9" t="s">
@@ -4544,7 +4544,7 @@
       <c r="B334" s="8">
         <v>0</v>
       </c>
-      <c r="C334" s="27"/>
+      <c r="C334" s="26"/>
     </row>
     <row r="335" spans="1:3" ht="28.5">
       <c r="A335" s="9" t="s">
@@ -4553,7 +4553,7 @@
       <c r="B335" s="8">
         <v>0</v>
       </c>
-      <c r="C335" s="27"/>
+      <c r="C335" s="26"/>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="9" t="s">
@@ -4562,14 +4562,14 @@
       <c r="B336" s="8">
         <v>0</v>
       </c>
-      <c r="C336" s="27"/>
+      <c r="C336" s="26"/>
     </row>
     <row r="337" spans="1:3" ht="42.75" customHeight="1">
       <c r="A337" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B337" s="25"/>
-      <c r="C337" s="27">
+      <c r="C337" s="26">
         <v>460</v>
       </c>
     </row>
@@ -4580,7 +4580,7 @@
       <c r="B338" s="8">
         <v>460</v>
       </c>
-      <c r="C338" s="27"/>
+      <c r="C338" s="26"/>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="9" t="s">
@@ -4589,7 +4589,7 @@
       <c r="B339" s="8">
         <v>0</v>
       </c>
-      <c r="C339" s="27"/>
+      <c r="C339" s="26"/>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="9" t="s">
@@ -4598,7 +4598,7 @@
       <c r="B340" s="8">
         <v>0</v>
       </c>
-      <c r="C340" s="27"/>
+      <c r="C340" s="26"/>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="9" t="s">
@@ -4607,7 +4607,7 @@
       <c r="B341" s="8">
         <v>0</v>
       </c>
-      <c r="C341" s="27"/>
+      <c r="C341" s="26"/>
     </row>
     <row r="342" spans="1:3" ht="15" customHeight="1">
       <c r="A342" s="9" t="s">
@@ -4616,7 +4616,7 @@
       <c r="B342" s="8">
         <v>0</v>
       </c>
-      <c r="C342" s="27"/>
+      <c r="C342" s="26"/>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="9" t="s">
@@ -4625,14 +4625,14 @@
       <c r="B343" s="8">
         <v>0</v>
       </c>
-      <c r="C343" s="27"/>
+      <c r="C343" s="26"/>
     </row>
     <row r="344" spans="1:3" ht="28.5" customHeight="1">
       <c r="A344" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B344" s="25"/>
-      <c r="C344" s="27">
+      <c r="C344" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4643,7 +4643,7 @@
       <c r="B345" s="8">
         <v>0</v>
       </c>
-      <c r="C345" s="27"/>
+      <c r="C345" s="26"/>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="9" t="s">
@@ -4652,7 +4652,7 @@
       <c r="B346" s="8">
         <v>0</v>
       </c>
-      <c r="C346" s="27"/>
+      <c r="C346" s="26"/>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="9" t="s">
@@ -4661,7 +4661,7 @@
       <c r="B347" s="8">
         <v>0</v>
       </c>
-      <c r="C347" s="27"/>
+      <c r="C347" s="26"/>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="9" t="s">
@@ -4670,7 +4670,7 @@
       <c r="B348" s="8">
         <v>0</v>
       </c>
-      <c r="C348" s="27"/>
+      <c r="C348" s="26"/>
     </row>
     <row r="349" spans="1:3" ht="28.5">
       <c r="A349" s="9" t="s">
@@ -4679,7 +4679,7 @@
       <c r="B349" s="8">
         <v>0</v>
       </c>
-      <c r="C349" s="27"/>
+      <c r="C349" s="26"/>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="9" t="s">
@@ -4688,7 +4688,7 @@
       <c r="B350" s="8">
         <v>0</v>
       </c>
-      <c r="C350" s="27"/>
+      <c r="C350" s="26"/>
     </row>
     <row r="351" spans="1:3" ht="42.75" customHeight="1">
       <c r="A351" s="25" t="s">
@@ -4703,7 +4703,7 @@
       <c r="A352" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B352" s="21">
+      <c r="B352" s="20">
         <v>19140</v>
       </c>
       <c r="C352" s="24"/>
@@ -4712,7 +4712,7 @@
       <c r="A353" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="B353" s="21">
+      <c r="B353" s="20">
         <v>28325</v>
       </c>
       <c r="C353" s="24"/>
@@ -4775,10 +4775,10 @@
       <c r="C360" s="24"/>
     </row>
     <row r="361" spans="1:3" ht="99.75">
-      <c r="A361" s="16" t="s">
+      <c r="A361" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="B361" s="20"/>
+      <c r="B361" s="19"/>
     </row>
     <row r="362" spans="1:3" ht="85.5">
       <c r="A362" s="9" t="s">
@@ -4828,25 +4828,25 @@
       </c>
     </row>
     <row r="371" spans="1:7" ht="71.25">
-      <c r="A371" s="16" t="s">
+      <c r="A371" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B371" s="12" t="s">
+      <c r="B371" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C371" s="12" t="s">
+      <c r="C371" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="D371" s="12" t="s">
+      <c r="D371" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E371" s="13" t="s">
+      <c r="E371" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F371" s="13" t="s">
+      <c r="F371" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="G371" s="11" t="s">
+      <c r="G371" s="10" t="s">
         <v>74</v>
       </c>
     </row>
@@ -4854,13 +4854,13 @@
       <c r="A372" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B372" s="14" t="s">
+      <c r="B372" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="C372" s="14" t="s">
+      <c r="C372" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D372" s="14" t="s">
+      <c r="D372" s="13" t="s">
         <v>109</v>
       </c>
       <c r="E372" s="7">
@@ -4869,7 +4869,7 @@
       <c r="F372" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G372" s="15">
+      <c r="G372" s="14">
         <v>27197.3</v>
       </c>
     </row>
@@ -4877,13 +4877,13 @@
       <c r="A373" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B373" s="14" t="s">
+      <c r="B373" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="C373" s="14" t="s">
+      <c r="C373" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D373" s="14" t="s">
+      <c r="D373" s="13" t="s">
         <v>109</v>
       </c>
       <c r="E373" s="7">
@@ -4892,7 +4892,7 @@
       <c r="F373" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G373" s="15">
+      <c r="G373" s="14">
         <v>12220.02</v>
       </c>
     </row>
@@ -4900,13 +4900,13 @@
       <c r="A374" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B374" s="14" t="s">
+      <c r="B374" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="C374" s="14" t="s">
+      <c r="C374" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D374" s="14" t="s">
+      <c r="D374" s="13" t="s">
         <v>109</v>
       </c>
       <c r="E374" s="7">
@@ -4915,7 +4915,7 @@
       <c r="F374" s="7">
         <v>144.88999999999999</v>
       </c>
-      <c r="G374" s="15">
+      <c r="G374" s="14">
         <v>15829.23</v>
       </c>
     </row>
@@ -4923,13 +4923,13 @@
       <c r="A375" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="B375" s="14" t="s">
+      <c r="B375" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="C375" s="14" t="s">
+      <c r="C375" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D375" s="14" t="s">
+      <c r="D375" s="13" t="s">
         <v>109</v>
       </c>
       <c r="E375" s="7">
@@ -4944,9 +4944,9 @@
     </row>
     <row r="376" spans="1:7" ht="28.5">
       <c r="A376" s="9"/>
-      <c r="B376" s="14"/>
-      <c r="C376" s="14"/>
-      <c r="D376" s="14"/>
+      <c r="B376" s="13"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="13"/>
       <c r="E376" s="7" t="s">
         <v>22</v>
       </c>
@@ -4957,25 +4957,37 @@
     </row>
     <row r="377" spans="1:7">
       <c r="A377" s="9"/>
-      <c r="B377" s="14"/>
-      <c r="C377" s="14"/>
-      <c r="D377" s="14"/>
+      <c r="B377" s="13"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="13"/>
       <c r="E377" s="7">
         <v>381.3</v>
       </c>
       <c r="F377" s="7"/>
-      <c r="G377" s="15">
+      <c r="G377" s="14">
         <v>55283.08</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="C263:C267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="C351:C357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A360:B360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="C309:C315"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="C316:C322"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="C323:C329"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="C330:C336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="C337:C343"/>
     <mergeCell ref="A344:B344"/>
     <mergeCell ref="C344:C350"/>
     <mergeCell ref="A232:B232"/>
@@ -4992,24 +5004,12 @@
     <mergeCell ref="A258:B258"/>
     <mergeCell ref="C258:C262"/>
     <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="C323:C329"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="C330:C336"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="C337:C343"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="C309:C315"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="C316:C322"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="C351:C357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="A360:B360"/>
-    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="C263:C267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C269:C270"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/A02SMVJ_ORCA PRICING REPORT.xlsx
+++ b/A02SMVJ_ORCA PRICING REPORT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ypabl\Desktop\ARAMIS 2024\A02SMVJ\ATT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2961E45D-EA4E-4320-BE91-35DA4DE1BDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FDEC110-F615-432D-845E-45D2579AB9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="141">
   <si>
     <t>Pricing Report</t>
   </si>
@@ -390,18 +390,9 @@
     <t>5BQ2MR-432</t>
   </si>
   <si>
-    <t>45.12 HRS</t>
-  </si>
-  <si>
     <t>7.73 HRS</t>
   </si>
   <si>
-    <t>37.39 HRS</t>
-  </si>
-  <si>
-    <t>33.12 HRS</t>
-  </si>
-  <si>
     <t>FNAP-CBL-144</t>
   </si>
   <si>
@@ -411,40 +402,52 @@
     <t>FNAP-CBL-432EUC</t>
   </si>
   <si>
-    <t>956.64 HRS</t>
-  </si>
-  <si>
     <t>617.75 HRS</t>
   </si>
   <si>
-    <t>338.89 HRS</t>
-  </si>
-  <si>
-    <t>130.19 HRS</t>
-  </si>
-  <si>
     <t>SRW-C7</t>
   </si>
   <si>
     <t>1.69 HRS</t>
   </si>
   <si>
-    <t>0.64 HRS</t>
-  </si>
-  <si>
-    <t>1.29 HRS</t>
-  </si>
-  <si>
     <t>ALHMGT1</t>
   </si>
   <si>
     <t>STUDDARD / TELCO</t>
   </si>
   <si>
-    <t>Generated: 05/23/2024, 03:07 PM</t>
-  </si>
-  <si>
-    <t>Pricing Date: 05/23/2024</t>
+    <t>Generated: 06/17/2024, 07:51 PM</t>
+  </si>
+  <si>
+    <t>RQST By: ARAMIS</t>
+  </si>
+  <si>
+    <t>Pricing Date: 06/17/2024</t>
+  </si>
+  <si>
+    <t>47.46 HRS</t>
+  </si>
+  <si>
+    <t>39.73 HRS</t>
+  </si>
+  <si>
+    <t>32.68 HRS</t>
+  </si>
+  <si>
+    <t>956.78 HRS</t>
+  </si>
+  <si>
+    <t>339.03 HRS</t>
+  </si>
+  <si>
+    <t>122.61 HRS</t>
+  </si>
+  <si>
+    <t>0.63 HRS</t>
+  </si>
+  <si>
+    <t>1.24 HRS</t>
   </si>
 </sst>
 </file>
@@ -602,11 +605,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="2"/>
@@ -927,12 +930,12 @@
     </row>
     <row r="3" spans="1:7" ht="85.5">
       <c r="A3" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="71.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="42.75">
       <c r="A4" s="3" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="85.5">
@@ -962,7 +965,7 @@
     </row>
     <row r="10" spans="1:7" ht="57">
       <c r="A10" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="42.75">
@@ -1252,13 +1255,13 @@
       <c r="C26" s="7"/>
       <c r="D26" s="7"/>
       <c r="E26" s="7" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="F26" s="7">
         <v>35.5</v>
       </c>
       <c r="G26" s="14">
-        <v>1601.83</v>
+        <v>1684.96</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="42.75">
@@ -1269,13 +1272,13 @@
       <c r="C27" s="7"/>
       <c r="D27" s="7"/>
       <c r="E27" s="7">
-        <v>4712.6899999999996</v>
+        <v>4795.82</v>
       </c>
       <c r="F27" s="7">
         <v>0.05</v>
       </c>
       <c r="G27" s="6">
-        <v>235.63</v>
+        <v>239.79</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1299,7 +1302,7 @@
       <c r="E29" s="7"/>
       <c r="F29" s="7"/>
       <c r="G29" s="14">
-        <v>4948.33</v>
+        <v>5035.6099999999997</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="42.75">
@@ -1310,7 +1313,7 @@
       <c r="C30" s="7"/>
       <c r="D30" s="7"/>
       <c r="E30" s="7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="7">
         <v>144.88999999999999</v>
@@ -1327,13 +1330,13 @@
       <c r="C31" s="7"/>
       <c r="D31" s="7"/>
       <c r="E31" s="7" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
       <c r="F31" s="7">
         <v>144.88999999999999</v>
       </c>
       <c r="G31" s="14">
-        <v>5417.16</v>
+        <v>5756.42</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1357,7 +1360,7 @@
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="14">
-        <v>6536.96</v>
+        <v>6876.22</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="28.5">
@@ -1418,13 +1421,13 @@
       <c r="C38" s="7"/>
       <c r="D38" s="7"/>
       <c r="E38" s="7" t="s">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="F38" s="7">
         <v>122.22</v>
       </c>
       <c r="G38" s="14">
-        <v>4047.8</v>
+        <v>3994.5</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1448,7 +1451,7 @@
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="14">
-        <v>4047.8</v>
+        <v>3994.5</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="85.5">
@@ -1461,7 +1464,7 @@
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="14">
-        <v>54889.56</v>
+        <v>55262.81</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="57">
@@ -1498,7 +1501,7 @@
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="14">
-        <v>68332.56</v>
+        <v>68705.81</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1518,7 +1521,7 @@
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
       <c r="E46" s="7">
-        <v>45.12</v>
+        <v>47.46</v>
       </c>
       <c r="F46" s="7"/>
       <c r="G46" s="6"/>
@@ -1531,7 +1534,7 @@
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7">
-        <v>33.119999999999997</v>
+        <v>32.68</v>
       </c>
       <c r="F47" s="7"/>
       <c r="G47" s="6"/>
@@ -1551,12 +1554,12 @@
     </row>
     <row r="49" spans="1:7" ht="85.5">
       <c r="A49" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="71.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="42.75">
       <c r="A50" s="3" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="85.5">
@@ -1586,7 +1589,7 @@
     </row>
     <row r="56" spans="1:7" ht="57">
       <c r="A56" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="42.75">
@@ -1739,7 +1742,7 @@
     <row r="64" spans="1:7" ht="42.75">
       <c r="A64" s="6"/>
       <c r="B64" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C64" s="7">
         <v>0</v>
@@ -1760,7 +1763,7 @@
     <row r="65" spans="1:7" ht="28.5">
       <c r="A65" s="6"/>
       <c r="B65" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C65" s="7">
         <v>0</v>
@@ -1823,7 +1826,7 @@
     <row r="68" spans="1:7" ht="42.75">
       <c r="A68" s="6"/>
       <c r="B68" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C68" s="7">
         <v>0</v>
@@ -1897,13 +1900,13 @@
       <c r="C73" s="7"/>
       <c r="D73" s="7"/>
       <c r="E73" s="7" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F73" s="7">
         <v>35.5</v>
       </c>
       <c r="G73" s="14">
-        <v>33964.61</v>
+        <v>33969.61</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="42.75">
@@ -1914,13 +1917,13 @@
       <c r="C74" s="7"/>
       <c r="D74" s="7"/>
       <c r="E74" s="7">
-        <v>96973.57</v>
+        <v>96978.57</v>
       </c>
       <c r="F74" s="7">
         <v>0.05</v>
       </c>
       <c r="G74" s="14">
-        <v>4848.68</v>
+        <v>4848.93</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -1944,7 +1947,7 @@
       <c r="E76" s="7"/>
       <c r="F76" s="7"/>
       <c r="G76" s="14">
-        <v>101822.25</v>
+        <v>101827.5</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="42.75">
@@ -1955,7 +1958,7 @@
       <c r="C77" s="7"/>
       <c r="D77" s="7"/>
       <c r="E77" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F77" s="7">
         <v>144.88999999999999</v>
@@ -1972,13 +1975,13 @@
       <c r="C78" s="7"/>
       <c r="D78" s="7"/>
       <c r="E78" s="7" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="F78" s="7">
         <v>144.88999999999999</v>
       </c>
       <c r="G78" s="14">
-        <v>49101.06</v>
+        <v>49121.46</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2002,7 +2005,7 @@
       <c r="E80" s="7"/>
       <c r="F80" s="7"/>
       <c r="G80" s="14">
-        <v>138607.13</v>
+        <v>138627.53</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="28.5">
@@ -2050,13 +2053,13 @@
       <c r="C84" s="7"/>
       <c r="D84" s="7"/>
       <c r="E84" s="7" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F84" s="7">
         <v>122.22</v>
       </c>
       <c r="G84" s="14">
-        <v>15912.1</v>
+        <v>14985.64</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -2080,7 +2083,7 @@
       <c r="E86" s="7"/>
       <c r="F86" s="7"/>
       <c r="G86" s="14">
-        <v>15912.1</v>
+        <v>14985.64</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="85.5">
@@ -2093,7 +2096,7 @@
       <c r="E87" s="7"/>
       <c r="F87" s="7"/>
       <c r="G87" s="14">
-        <v>256341.48</v>
+        <v>255440.67</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="57">
@@ -2130,7 +2133,7 @@
       <c r="E90" s="7"/>
       <c r="F90" s="7"/>
       <c r="G90" s="14">
-        <v>335762.48</v>
+        <v>334861.67</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -2150,7 +2153,7 @@
       <c r="C92" s="7"/>
       <c r="D92" s="7"/>
       <c r="E92" s="7">
-        <v>956.64</v>
+        <v>956.78</v>
       </c>
       <c r="F92" s="7"/>
       <c r="G92" s="6"/>
@@ -2163,7 +2166,7 @@
       <c r="C93" s="7"/>
       <c r="D93" s="7"/>
       <c r="E93" s="7">
-        <v>130.19</v>
+        <v>122.61</v>
       </c>
       <c r="F93" s="7"/>
       <c r="G93" s="6"/>
@@ -2183,12 +2186,12 @@
     </row>
     <row r="95" spans="1:7" ht="85.5">
       <c r="A95" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" ht="71.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="42.75">
       <c r="A96" s="3" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="85.5">
@@ -2218,7 +2221,7 @@
     </row>
     <row r="102" spans="1:7" ht="57">
       <c r="A102" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="42.75">
@@ -2245,7 +2248,7 @@
     <row r="104" spans="1:7" ht="28.5">
       <c r="A104" s="6"/>
       <c r="B104" s="13" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C104" s="7">
         <v>0</v>
@@ -2340,7 +2343,7 @@
       <c r="C110" s="7"/>
       <c r="D110" s="7"/>
       <c r="E110" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F110" s="7">
         <v>35.5</v>
@@ -2398,7 +2401,7 @@
       <c r="C114" s="7"/>
       <c r="D114" s="7"/>
       <c r="E114" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="F114" s="7">
         <v>144.88999999999999</v>
@@ -2493,13 +2496,13 @@
       <c r="C121" s="7"/>
       <c r="D121" s="7"/>
       <c r="E121" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="F121" s="7">
         <v>122.22</v>
       </c>
       <c r="G121" s="6">
-        <v>78.349999999999994</v>
+        <v>77.23</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -2523,7 +2526,7 @@
       <c r="E123" s="7"/>
       <c r="F123" s="7"/>
       <c r="G123" s="6">
-        <v>78.349999999999994</v>
+        <v>77.23</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="85.5">
@@ -2536,7 +2539,7 @@
       <c r="E124" s="7"/>
       <c r="F124" s="7"/>
       <c r="G124" s="6">
-        <v>703.93</v>
+        <v>702.8</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -2560,7 +2563,7 @@
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="6">
-        <v>703.93</v>
+        <v>702.8</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -2593,7 +2596,7 @@
       <c r="C129" s="7"/>
       <c r="D129" s="7"/>
       <c r="E129" s="7">
-        <v>0.64</v>
+        <v>0.63</v>
       </c>
       <c r="F129" s="7"/>
       <c r="G129" s="6"/>
@@ -2613,12 +2616,12 @@
     </row>
     <row r="131" spans="1:7" ht="85.5">
       <c r="A131" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" ht="71.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" ht="42.75">
       <c r="A132" s="3" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="85.5">
@@ -2648,7 +2651,7 @@
     </row>
     <row r="138" spans="1:7" ht="57">
       <c r="A138" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="42.75">
@@ -2889,13 +2892,13 @@
       <c r="C155" s="7"/>
       <c r="D155" s="7"/>
       <c r="E155" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="F155" s="7">
         <v>122.22</v>
       </c>
       <c r="G155" s="6">
-        <v>157.53</v>
+        <v>151.9</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -2919,7 +2922,7 @@
       <c r="E157" s="7"/>
       <c r="F157" s="7"/>
       <c r="G157" s="6">
-        <v>157.53</v>
+        <v>151.9</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="85.5">
@@ -2932,7 +2935,7 @@
       <c r="E158" s="7"/>
       <c r="F158" s="7"/>
       <c r="G158" s="14">
-        <v>2970.49</v>
+        <v>2964.86</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="57">
@@ -2969,7 +2972,7 @@
       <c r="E161" s="7"/>
       <c r="F161" s="7"/>
       <c r="G161" s="14">
-        <v>3243.49</v>
+        <v>3237.86</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -3002,7 +3005,7 @@
       <c r="C164" s="7"/>
       <c r="D164" s="7"/>
       <c r="E164" s="7">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="F164" s="7"/>
       <c r="G164" s="6"/>
@@ -3022,12 +3025,12 @@
     </row>
     <row r="166" spans="1:7" ht="85.5">
       <c r="A166" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="167" spans="1:7" ht="71.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" ht="42.75">
       <c r="A167" s="3" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="99.75">
@@ -3052,7 +3055,7 @@
     </row>
     <row r="172" spans="1:7" ht="57">
       <c r="A172" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="57">
@@ -3077,7 +3080,7 @@
         <v>59</v>
       </c>
       <c r="B174" s="16">
-        <v>408042.46</v>
+        <v>407508.14</v>
       </c>
       <c r="C174" s="7">
         <v>0</v>
@@ -3107,7 +3110,7 @@
     <row r="176" spans="1:7">
       <c r="A176" s="22"/>
       <c r="B176" s="16">
-        <v>408042.46</v>
+        <v>407508.14</v>
       </c>
       <c r="C176" s="7">
         <v>0</v>
@@ -3172,7 +3175,7 @@
       </c>
       <c r="B182" s="7"/>
       <c r="C182" s="17">
-        <v>20195.78</v>
+        <v>19209.27</v>
       </c>
       <c r="D182" s="7"/>
       <c r="E182" s="6"/>
@@ -3183,7 +3186,7 @@
       </c>
       <c r="B183" s="7"/>
       <c r="C183" s="17">
-        <v>408042.46</v>
+        <v>407508.14</v>
       </c>
       <c r="D183" s="7"/>
       <c r="E183" s="6"/>
@@ -3194,7 +3197,7 @@
       </c>
       <c r="B184" s="7"/>
       <c r="C184" s="17">
-        <v>408042.46</v>
+        <v>407508.14</v>
       </c>
       <c r="D184" s="7"/>
       <c r="E184" s="6"/>
@@ -3205,7 +3208,7 @@
         <v>64</v>
       </c>
       <c r="C185" s="7">
-        <v>1003.45</v>
+        <v>1005.93</v>
       </c>
       <c r="D185" s="7"/>
       <c r="E185" s="6"/>
@@ -3216,7 +3219,7 @@
         <v>65</v>
       </c>
       <c r="C186" s="7">
-        <v>165.24</v>
+        <v>157.16</v>
       </c>
       <c r="D186" s="7"/>
       <c r="E186" s="6"/>
@@ -3245,12 +3248,12 @@
     </row>
     <row r="189" spans="1:5" ht="85.5">
       <c r="A189" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="190" spans="1:5" ht="71.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="42.75">
       <c r="A190" s="3" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="85.5">
@@ -3275,7 +3278,7 @@
     </row>
     <row r="195" spans="1:5" ht="57">
       <c r="A195" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="42.75">
@@ -3417,7 +3420,7 @@
     </row>
     <row r="205" spans="1:5" ht="42.75">
       <c r="A205" s="22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B205" s="7">
         <v>144</v>
@@ -3432,7 +3435,7 @@
     </row>
     <row r="206" spans="1:5" ht="42.75">
       <c r="A206" s="22" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B206" s="7">
         <v>72</v>
@@ -3477,7 +3480,7 @@
     </row>
     <row r="209" spans="1:5" ht="57">
       <c r="A209" s="22" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B209" s="7">
         <v>432</v>
@@ -3561,12 +3564,12 @@
     </row>
     <row r="215" spans="1:5" ht="85.5">
       <c r="A215" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="216" spans="1:5" ht="71.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="42.75">
       <c r="A216" s="3" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="217" spans="1:5" ht="114">
@@ -3591,7 +3594,7 @@
     </row>
     <row r="221" spans="1:5" ht="57">
       <c r="A221" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="222" spans="1:5" ht="156.75">
@@ -3606,12 +3609,12 @@
     </row>
     <row r="224" spans="1:5" ht="85.5">
       <c r="A224" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="225" spans="1:3" ht="71.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" ht="42.75">
       <c r="A225" s="3" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="226" spans="1:3" ht="57">
@@ -3641,7 +3644,7 @@
     </row>
     <row r="231" spans="1:3" ht="57">
       <c r="A231" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="42.75" customHeight="1">
@@ -3656,8 +3659,8 @@
         <v>85</v>
       </c>
       <c r="B233" s="25"/>
-      <c r="C233" s="27">
-        <v>1.76</v>
+      <c r="C233" s="26">
+        <v>1.73</v>
       </c>
     </row>
     <row r="234" spans="1:3">
@@ -3665,9 +3668,9 @@
         <v>86</v>
       </c>
       <c r="B234" s="23">
-        <v>1.76</v>
-      </c>
-      <c r="C234" s="27"/>
+        <v>1.73</v>
+      </c>
+      <c r="C234" s="26"/>
     </row>
     <row r="235" spans="1:3">
       <c r="A235" s="22" t="s">
@@ -3676,7 +3679,7 @@
       <c r="B235" s="23">
         <v>0</v>
       </c>
-      <c r="C235" s="27"/>
+      <c r="C235" s="26"/>
     </row>
     <row r="236" spans="1:3">
       <c r="A236" s="22" t="s">
@@ -3685,7 +3688,7 @@
       <c r="B236" s="23">
         <v>0</v>
       </c>
-      <c r="C236" s="27"/>
+      <c r="C236" s="26"/>
     </row>
     <row r="237" spans="1:3" ht="28.5">
       <c r="A237" s="22" t="s">
@@ -3694,14 +3697,14 @@
       <c r="B237" s="23">
         <v>0</v>
       </c>
-      <c r="C237" s="27"/>
+      <c r="C237" s="26"/>
     </row>
     <row r="238" spans="1:3" ht="28.5" customHeight="1">
       <c r="A238" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B238" s="25"/>
-      <c r="C238" s="27">
+      <c r="C238" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3712,7 +3715,7 @@
       <c r="B239" s="23">
         <v>0</v>
       </c>
-      <c r="C239" s="27"/>
+      <c r="C239" s="26"/>
     </row>
     <row r="240" spans="1:3">
       <c r="A240" s="22" t="s">
@@ -3721,7 +3724,7 @@
       <c r="B240" s="23">
         <v>0</v>
       </c>
-      <c r="C240" s="27"/>
+      <c r="C240" s="26"/>
     </row>
     <row r="241" spans="1:3">
       <c r="A241" s="22" t="s">
@@ -3730,7 +3733,7 @@
       <c r="B241" s="23">
         <v>0</v>
       </c>
-      <c r="C241" s="27"/>
+      <c r="C241" s="26"/>
     </row>
     <row r="242" spans="1:3" ht="28.5">
       <c r="A242" s="22" t="s">
@@ -3739,14 +3742,14 @@
       <c r="B242" s="23">
         <v>0</v>
       </c>
-      <c r="C242" s="27"/>
+      <c r="C242" s="26"/>
     </row>
     <row r="243" spans="1:3" ht="28.5" customHeight="1">
       <c r="A243" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B243" s="25"/>
-      <c r="C243" s="27">
+      <c r="C243" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3757,7 +3760,7 @@
       <c r="B244" s="23">
         <v>0</v>
       </c>
-      <c r="C244" s="27"/>
+      <c r="C244" s="26"/>
     </row>
     <row r="245" spans="1:3">
       <c r="A245" s="22" t="s">
@@ -3766,7 +3769,7 @@
       <c r="B245" s="23">
         <v>0</v>
       </c>
-      <c r="C245" s="27"/>
+      <c r="C245" s="26"/>
     </row>
     <row r="246" spans="1:3">
       <c r="A246" s="22" t="s">
@@ -3775,7 +3778,7 @@
       <c r="B246" s="23">
         <v>0</v>
       </c>
-      <c r="C246" s="27"/>
+      <c r="C246" s="26"/>
     </row>
     <row r="247" spans="1:3" ht="28.5">
       <c r="A247" s="22" t="s">
@@ -3784,14 +3787,14 @@
       <c r="B247" s="23">
         <v>0</v>
       </c>
-      <c r="C247" s="27"/>
+      <c r="C247" s="26"/>
     </row>
     <row r="248" spans="1:3" ht="28.5" customHeight="1">
       <c r="A248" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B248" s="25"/>
-      <c r="C248" s="27">
+      <c r="C248" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3802,7 +3805,7 @@
       <c r="B249" s="23">
         <v>0</v>
       </c>
-      <c r="C249" s="27"/>
+      <c r="C249" s="26"/>
     </row>
     <row r="250" spans="1:3">
       <c r="A250" s="22" t="s">
@@ -3811,7 +3814,7 @@
       <c r="B250" s="23">
         <v>0</v>
       </c>
-      <c r="C250" s="27"/>
+      <c r="C250" s="26"/>
     </row>
     <row r="251" spans="1:3">
       <c r="A251" s="22" t="s">
@@ -3820,7 +3823,7 @@
       <c r="B251" s="23">
         <v>0</v>
       </c>
-      <c r="C251" s="27"/>
+      <c r="C251" s="26"/>
     </row>
     <row r="252" spans="1:3" ht="28.5">
       <c r="A252" s="22" t="s">
@@ -3829,14 +3832,14 @@
       <c r="B252" s="23">
         <v>0</v>
       </c>
-      <c r="C252" s="27"/>
+      <c r="C252" s="26"/>
     </row>
     <row r="253" spans="1:3" ht="42.75" customHeight="1">
       <c r="A253" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B253" s="25"/>
-      <c r="C253" s="27">
+      <c r="C253" s="26">
         <v>20</v>
       </c>
     </row>
@@ -3847,7 +3850,7 @@
       <c r="B254" s="23">
         <v>20</v>
       </c>
-      <c r="C254" s="27"/>
+      <c r="C254" s="26"/>
     </row>
     <row r="255" spans="1:3">
       <c r="A255" s="22" t="s">
@@ -3856,7 +3859,7 @@
       <c r="B255" s="23">
         <v>0</v>
       </c>
-      <c r="C255" s="27"/>
+      <c r="C255" s="26"/>
     </row>
     <row r="256" spans="1:3">
       <c r="A256" s="22" t="s">
@@ -3865,7 +3868,7 @@
       <c r="B256" s="23">
         <v>0</v>
       </c>
-      <c r="C256" s="27"/>
+      <c r="C256" s="26"/>
     </row>
     <row r="257" spans="1:3" ht="28.5">
       <c r="A257" s="22" t="s">
@@ -3874,14 +3877,14 @@
       <c r="B257" s="23">
         <v>0</v>
       </c>
-      <c r="C257" s="27"/>
+      <c r="C257" s="26"/>
     </row>
     <row r="258" spans="1:3" ht="28.5" customHeight="1">
       <c r="A258" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B258" s="25"/>
-      <c r="C258" s="27">
+      <c r="C258" s="26">
         <v>0</v>
       </c>
     </row>
@@ -3892,7 +3895,7 @@
       <c r="B259" s="23">
         <v>0</v>
       </c>
-      <c r="C259" s="27"/>
+      <c r="C259" s="26"/>
     </row>
     <row r="260" spans="1:3">
       <c r="A260" s="22" t="s">
@@ -3901,7 +3904,7 @@
       <c r="B260" s="23">
         <v>0</v>
       </c>
-      <c r="C260" s="27"/>
+      <c r="C260" s="26"/>
     </row>
     <row r="261" spans="1:3">
       <c r="A261" s="22" t="s">
@@ -3910,7 +3913,7 @@
       <c r="B261" s="23">
         <v>0</v>
       </c>
-      <c r="C261" s="27"/>
+      <c r="C261" s="26"/>
     </row>
     <row r="262" spans="1:3" ht="28.5">
       <c r="A262" s="22" t="s">
@@ -3919,7 +3922,7 @@
       <c r="B262" s="23">
         <v>0</v>
       </c>
-      <c r="C262" s="27"/>
+      <c r="C262" s="26"/>
     </row>
     <row r="263" spans="1:3" ht="42.75" customHeight="1">
       <c r="A263" s="25" t="s">
@@ -3979,7 +3982,7 @@
       </c>
       <c r="B269" s="25"/>
       <c r="C269" s="24">
-        <v>93158.76</v>
+        <v>93158.73</v>
       </c>
     </row>
     <row r="270" spans="1:3">
@@ -3998,7 +4001,7 @@
         <v>98</v>
       </c>
       <c r="B272" s="24">
-        <v>93158.76</v>
+        <v>93158.73</v>
       </c>
     </row>
     <row r="273" spans="1:7">
@@ -4007,12 +4010,12 @@
     </row>
     <row r="274" spans="1:7" ht="85.5">
       <c r="A274" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="275" spans="1:7" ht="71.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="42.75">
       <c r="A275" s="3" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
     </row>
     <row r="276" spans="1:7" ht="71.25">
@@ -4037,7 +4040,7 @@
     </row>
     <row r="280" spans="1:7" ht="57">
       <c r="A280" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
     </row>
     <row r="281" spans="1:7" ht="71.25">
@@ -4071,10 +4074,10 @@
         <v>107</v>
       </c>
       <c r="C282" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D282" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E282" s="7">
         <v>697.94</v>
@@ -4094,10 +4097,10 @@
         <v>111</v>
       </c>
       <c r="C283" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D283" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E283" s="7">
         <v>133.69999999999999</v>
@@ -4117,19 +4120,19 @@
         <v>110</v>
       </c>
       <c r="C284" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D284" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E284" s="7">
-        <v>171.54</v>
+        <v>174.02</v>
       </c>
       <c r="F284" s="7">
         <v>144.88999999999999</v>
       </c>
       <c r="G284" s="14">
-        <v>24854.43</v>
+        <v>25213.759999999998</v>
       </c>
     </row>
     <row r="285" spans="1:7" ht="42.75">
@@ -4140,10 +4143,10 @@
         <v>112</v>
       </c>
       <c r="C285" s="13" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D285" s="13" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E285" s="7">
         <v>0</v>
@@ -4174,11 +4177,11 @@
       <c r="C287" s="13"/>
       <c r="D287" s="13"/>
       <c r="E287" s="7">
-        <v>1003.18</v>
+        <v>1005.66</v>
       </c>
       <c r="F287" s="7"/>
       <c r="G287" s="14">
-        <v>145388.84</v>
+        <v>145748.5</v>
       </c>
     </row>
     <row r="288" spans="1:7" ht="42.75">
@@ -4306,10 +4309,10 @@
       </c>
     </row>
     <row r="308" spans="1:3" ht="42.75" customHeight="1">
-      <c r="A308" s="26" t="s">
+      <c r="A308" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="B308" s="26"/>
+      <c r="B308" s="27"/>
       <c r="C308" s="19"/>
     </row>
     <row r="309" spans="1:3" ht="28.5" customHeight="1">
@@ -4317,7 +4320,7 @@
         <v>85</v>
       </c>
       <c r="B309" s="25"/>
-      <c r="C309" s="27">
+      <c r="C309" s="26">
         <v>36.39</v>
       </c>
     </row>
@@ -4328,7 +4331,7 @@
       <c r="B310" s="8">
         <v>36.39</v>
       </c>
-      <c r="C310" s="27"/>
+      <c r="C310" s="26"/>
     </row>
     <row r="311" spans="1:3">
       <c r="A311" s="9" t="s">
@@ -4337,7 +4340,7 @@
       <c r="B311" s="8">
         <v>0</v>
       </c>
-      <c r="C311" s="27"/>
+      <c r="C311" s="26"/>
     </row>
     <row r="312" spans="1:3">
       <c r="A312" s="9" t="s">
@@ -4346,7 +4349,7 @@
       <c r="B312" s="8">
         <v>0</v>
       </c>
-      <c r="C312" s="27"/>
+      <c r="C312" s="26"/>
     </row>
     <row r="313" spans="1:3" ht="28.5" customHeight="1">
       <c r="A313" s="9" t="s">
@@ -4355,7 +4358,7 @@
       <c r="B313" s="8">
         <v>0</v>
       </c>
-      <c r="C313" s="27"/>
+      <c r="C313" s="26"/>
     </row>
     <row r="314" spans="1:3" ht="28.5">
       <c r="A314" s="9" t="s">
@@ -4364,7 +4367,7 @@
       <c r="B314" s="8">
         <v>0</v>
       </c>
-      <c r="C314" s="27"/>
+      <c r="C314" s="26"/>
     </row>
     <row r="315" spans="1:3">
       <c r="A315" s="9" t="s">
@@ -4373,14 +4376,14 @@
       <c r="B315" s="8">
         <v>0</v>
       </c>
-      <c r="C315" s="27"/>
+      <c r="C315" s="26"/>
     </row>
     <row r="316" spans="1:3" ht="28.5" customHeight="1">
       <c r="A316" s="25" t="s">
         <v>92</v>
       </c>
       <c r="B316" s="25"/>
-      <c r="C316" s="27">
+      <c r="C316" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4391,7 +4394,7 @@
       <c r="B317" s="8">
         <v>0</v>
       </c>
-      <c r="C317" s="27"/>
+      <c r="C317" s="26"/>
     </row>
     <row r="318" spans="1:3">
       <c r="A318" s="9" t="s">
@@ -4400,7 +4403,7 @@
       <c r="B318" s="8">
         <v>0</v>
       </c>
-      <c r="C318" s="27"/>
+      <c r="C318" s="26"/>
     </row>
     <row r="319" spans="1:3">
       <c r="A319" s="9" t="s">
@@ -4409,7 +4412,7 @@
       <c r="B319" s="8">
         <v>0</v>
       </c>
-      <c r="C319" s="27"/>
+      <c r="C319" s="26"/>
     </row>
     <row r="320" spans="1:3" ht="28.5" customHeight="1">
       <c r="A320" s="9" t="s">
@@ -4418,7 +4421,7 @@
       <c r="B320" s="8">
         <v>0</v>
       </c>
-      <c r="C320" s="27"/>
+      <c r="C320" s="26"/>
     </row>
     <row r="321" spans="1:3" ht="28.5">
       <c r="A321" s="9" t="s">
@@ -4427,7 +4430,7 @@
       <c r="B321" s="8">
         <v>0</v>
       </c>
-      <c r="C321" s="27"/>
+      <c r="C321" s="26"/>
     </row>
     <row r="322" spans="1:3">
       <c r="A322" s="9" t="s">
@@ -4436,14 +4439,14 @@
       <c r="B322" s="8">
         <v>0</v>
       </c>
-      <c r="C322" s="27"/>
+      <c r="C322" s="26"/>
     </row>
     <row r="323" spans="1:3" ht="28.5" customHeight="1">
       <c r="A323" s="25" t="s">
         <v>93</v>
       </c>
       <c r="B323" s="25"/>
-      <c r="C323" s="27">
+      <c r="C323" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4454,7 +4457,7 @@
       <c r="B324" s="8">
         <v>0</v>
       </c>
-      <c r="C324" s="27"/>
+      <c r="C324" s="26"/>
     </row>
     <row r="325" spans="1:3">
       <c r="A325" s="9" t="s">
@@ -4463,7 +4466,7 @@
       <c r="B325" s="8">
         <v>0</v>
       </c>
-      <c r="C325" s="27"/>
+      <c r="C325" s="26"/>
     </row>
     <row r="326" spans="1:3">
       <c r="A326" s="9" t="s">
@@ -4472,7 +4475,7 @@
       <c r="B326" s="8">
         <v>0</v>
       </c>
-      <c r="C326" s="27"/>
+      <c r="C326" s="26"/>
     </row>
     <row r="327" spans="1:3" ht="28.5" customHeight="1">
       <c r="A327" s="9" t="s">
@@ -4481,7 +4484,7 @@
       <c r="B327" s="8">
         <v>0</v>
       </c>
-      <c r="C327" s="27"/>
+      <c r="C327" s="26"/>
     </row>
     <row r="328" spans="1:3" ht="28.5">
       <c r="A328" s="9" t="s">
@@ -4490,7 +4493,7 @@
       <c r="B328" s="8">
         <v>0</v>
       </c>
-      <c r="C328" s="27"/>
+      <c r="C328" s="26"/>
     </row>
     <row r="329" spans="1:3">
       <c r="A329" s="9" t="s">
@@ -4499,14 +4502,14 @@
       <c r="B329" s="8">
         <v>0</v>
       </c>
-      <c r="C329" s="27"/>
+      <c r="C329" s="26"/>
     </row>
     <row r="330" spans="1:3" ht="28.5" customHeight="1">
       <c r="A330" s="25" t="s">
         <v>94</v>
       </c>
       <c r="B330" s="25"/>
-      <c r="C330" s="27">
+      <c r="C330" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4517,7 +4520,7 @@
       <c r="B331" s="8">
         <v>0</v>
       </c>
-      <c r="C331" s="27"/>
+      <c r="C331" s="26"/>
     </row>
     <row r="332" spans="1:3">
       <c r="A332" s="9" t="s">
@@ -4526,7 +4529,7 @@
       <c r="B332" s="8">
         <v>0</v>
       </c>
-      <c r="C332" s="27"/>
+      <c r="C332" s="26"/>
     </row>
     <row r="333" spans="1:3">
       <c r="A333" s="9" t="s">
@@ -4535,7 +4538,7 @@
       <c r="B333" s="8">
         <v>0</v>
       </c>
-      <c r="C333" s="27"/>
+      <c r="C333" s="26"/>
     </row>
     <row r="334" spans="1:3" ht="28.5" customHeight="1">
       <c r="A334" s="9" t="s">
@@ -4544,7 +4547,7 @@
       <c r="B334" s="8">
         <v>0</v>
       </c>
-      <c r="C334" s="27"/>
+      <c r="C334" s="26"/>
     </row>
     <row r="335" spans="1:3" ht="28.5">
       <c r="A335" s="9" t="s">
@@ -4553,7 +4556,7 @@
       <c r="B335" s="8">
         <v>0</v>
       </c>
-      <c r="C335" s="27"/>
+      <c r="C335" s="26"/>
     </row>
     <row r="336" spans="1:3">
       <c r="A336" s="9" t="s">
@@ -4562,14 +4565,14 @@
       <c r="B336" s="8">
         <v>0</v>
       </c>
-      <c r="C336" s="27"/>
+      <c r="C336" s="26"/>
     </row>
     <row r="337" spans="1:3" ht="42.75" customHeight="1">
       <c r="A337" s="25" t="s">
         <v>114</v>
       </c>
       <c r="B337" s="25"/>
-      <c r="C337" s="27">
+      <c r="C337" s="26">
         <v>460</v>
       </c>
     </row>
@@ -4580,7 +4583,7 @@
       <c r="B338" s="8">
         <v>460</v>
       </c>
-      <c r="C338" s="27"/>
+      <c r="C338" s="26"/>
     </row>
     <row r="339" spans="1:3">
       <c r="A339" s="9" t="s">
@@ -4589,7 +4592,7 @@
       <c r="B339" s="8">
         <v>0</v>
       </c>
-      <c r="C339" s="27"/>
+      <c r="C339" s="26"/>
     </row>
     <row r="340" spans="1:3">
       <c r="A340" s="9" t="s">
@@ -4598,7 +4601,7 @@
       <c r="B340" s="8">
         <v>0</v>
       </c>
-      <c r="C340" s="27"/>
+      <c r="C340" s="26"/>
     </row>
     <row r="341" spans="1:3">
       <c r="A341" s="9" t="s">
@@ -4607,7 +4610,7 @@
       <c r="B341" s="8">
         <v>0</v>
       </c>
-      <c r="C341" s="27"/>
+      <c r="C341" s="26"/>
     </row>
     <row r="342" spans="1:3" ht="15" customHeight="1">
       <c r="A342" s="9" t="s">
@@ -4616,7 +4619,7 @@
       <c r="B342" s="8">
         <v>0</v>
       </c>
-      <c r="C342" s="27"/>
+      <c r="C342" s="26"/>
     </row>
     <row r="343" spans="1:3">
       <c r="A343" s="9" t="s">
@@ -4625,14 +4628,14 @@
       <c r="B343" s="8">
         <v>0</v>
       </c>
-      <c r="C343" s="27"/>
+      <c r="C343" s="26"/>
     </row>
     <row r="344" spans="1:3" ht="28.5" customHeight="1">
       <c r="A344" s="25" t="s">
         <v>95</v>
       </c>
       <c r="B344" s="25"/>
-      <c r="C344" s="27">
+      <c r="C344" s="26">
         <v>0</v>
       </c>
     </row>
@@ -4643,7 +4646,7 @@
       <c r="B345" s="8">
         <v>0</v>
       </c>
-      <c r="C345" s="27"/>
+      <c r="C345" s="26"/>
     </row>
     <row r="346" spans="1:3">
       <c r="A346" s="9" t="s">
@@ -4652,7 +4655,7 @@
       <c r="B346" s="8">
         <v>0</v>
       </c>
-      <c r="C346" s="27"/>
+      <c r="C346" s="26"/>
     </row>
     <row r="347" spans="1:3">
       <c r="A347" s="9" t="s">
@@ -4661,7 +4664,7 @@
       <c r="B347" s="8">
         <v>0</v>
       </c>
-      <c r="C347" s="27"/>
+      <c r="C347" s="26"/>
     </row>
     <row r="348" spans="1:3">
       <c r="A348" s="9" t="s">
@@ -4670,7 +4673,7 @@
       <c r="B348" s="8">
         <v>0</v>
       </c>
-      <c r="C348" s="27"/>
+      <c r="C348" s="26"/>
     </row>
     <row r="349" spans="1:3" ht="28.5">
       <c r="A349" s="9" t="s">
@@ -4679,7 +4682,7 @@
       <c r="B349" s="8">
         <v>0</v>
       </c>
-      <c r="C349" s="27"/>
+      <c r="C349" s="26"/>
     </row>
     <row r="350" spans="1:3">
       <c r="A350" s="9" t="s">
@@ -4688,7 +4691,7 @@
       <c r="B350" s="8">
         <v>0</v>
       </c>
-      <c r="C350" s="27"/>
+      <c r="C350" s="26"/>
     </row>
     <row r="351" spans="1:3" ht="42.75" customHeight="1">
       <c r="A351" s="25" t="s">
@@ -4970,12 +4973,24 @@
     </row>
   </sheetData>
   <mergeCells count="40">
-    <mergeCell ref="B272:B273"/>
-    <mergeCell ref="C263:C267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:B270"/>
-    <mergeCell ref="C269:C270"/>
+    <mergeCell ref="B362:B363"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="C351:C357"/>
+    <mergeCell ref="A358:B358"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A360:B360"/>
+    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="C309:C315"/>
+    <mergeCell ref="A316:B316"/>
+    <mergeCell ref="C316:C322"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="C323:C329"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="C330:C336"/>
+    <mergeCell ref="A337:B337"/>
+    <mergeCell ref="C337:C343"/>
     <mergeCell ref="A344:B344"/>
     <mergeCell ref="C344:C350"/>
     <mergeCell ref="A232:B232"/>
@@ -4992,24 +5007,12 @@
     <mergeCell ref="A258:B258"/>
     <mergeCell ref="C258:C262"/>
     <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="C323:C329"/>
-    <mergeCell ref="A330:B330"/>
-    <mergeCell ref="C330:C336"/>
-    <mergeCell ref="A337:B337"/>
-    <mergeCell ref="C337:C343"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="C309:C315"/>
-    <mergeCell ref="A316:B316"/>
-    <mergeCell ref="C316:C322"/>
-    <mergeCell ref="B362:B363"/>
-    <mergeCell ref="A351:B351"/>
-    <mergeCell ref="C351:C357"/>
-    <mergeCell ref="A358:B358"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="A360:B360"/>
-    <mergeCell ref="C359:C360"/>
+    <mergeCell ref="B272:B273"/>
+    <mergeCell ref="C263:C267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="C269:C270"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
